--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84483DA-0C45-456F-B02F-24F1FB79D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -18,15 +19,6 @@
     <sheet name="ProcCode" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
@@ -1182,8 +1174,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1505,8 +1497,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1598,6 +1590,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1633,6 +1642,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1808,25 +1834,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="33.77734375" style="18" customWidth="1"/>
     <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="46.6640625" style="16" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
@@ -1841,7 +1868,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
@@ -1854,7 +1881,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -1869,7 +1896,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1880,7 +1907,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
@@ -1893,7 +1920,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -1906,7 +1933,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -1919,7 +1946,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>56</v>
       </c>
@@ -1932,7 +1959,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
+    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -1973,7 +2000,7 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -1991,7 +2018,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -2011,7 +2038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="178.2">
+    <row r="13" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -2031,7 +2058,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -2049,7 +2076,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -2067,7 +2094,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -2085,7 +2112,7 @@
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -2103,7 +2130,7 @@
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -2123,7 +2150,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="178.2">
+    <row r="19" spans="1:7" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -2143,7 +2170,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="113.4">
+    <row r="20" spans="1:7" ht="138.6" x14ac:dyDescent="0.3">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -2163,7 +2190,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="32.4">
+    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A21" s="19">
         <v>12</v>
       </c>
@@ -2183,7 +2210,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -2203,7 +2230,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -2221,7 +2248,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -2239,7 +2266,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
         <v>16</v>
       </c>
@@ -2257,7 +2284,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="169.8" customHeight="1">
+    <row r="26" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -2277,7 +2304,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
+    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -2297,7 +2324,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32.4">
+    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A28" s="19">
         <v>19</v>
       </c>
@@ -2311,13 +2338,13 @@
         <v>34</v>
       </c>
       <c r="E28" s="23">
-        <v>600</v>
+        <v>3000</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A29" s="19">
         <v>20</v>
       </c>
@@ -2335,7 +2362,7 @@
       </c>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="19">
         <v>21</v>
       </c>
@@ -2355,7 +2382,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -2373,7 +2400,7 @@
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" ht="81">
+    <row r="32" spans="1:7" ht="99" x14ac:dyDescent="0.3">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -2393,7 +2420,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="19">
         <v>24</v>
       </c>
@@ -2411,7 +2438,7 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7">
+    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A34" s="19">
         <v>25</v>
       </c>
@@ -2427,7 +2454,7 @@
       <c r="E34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7">
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="19">
         <v>26</v>
       </c>
@@ -2445,7 +2472,7 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -2461,7 +2488,7 @@
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="19">
         <v>28</v>
       </c>
@@ -2492,7 +2519,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" location="ProcCode!A1" display="ProcCode!A1"/>
+    <hyperlink ref="G27" location="ProcCode!A1" display="ProcCode!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2500,7 +2527,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X25"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2508,7 +2535,7 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2516,7 +2543,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2527,7 +2554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2538,7 +2565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -2549,7 +2576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -2560,7 +2587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2571,7 +2598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -2582,7 +2609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -2593,7 +2620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -2604,7 +2631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:24">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -2615,7 +2642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:24">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -2626,7 +2653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:24">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -2637,7 +2664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -2648,7 +2675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:24">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
@@ -2659,7 +2686,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -2673,7 +2700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2684,7 +2711,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2695,7 +2722,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -2706,7 +2733,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="34" customFormat="1">
+    <row r="18" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33" t="s">
         <v>250</v>
       </c>
@@ -2717,7 +2744,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="34" customFormat="1">
+    <row r="19" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33" t="s">
         <v>251</v>
       </c>
@@ -2728,7 +2755,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="34" customFormat="1">
+    <row r="20" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33" t="s">
         <v>252</v>
       </c>
@@ -2739,7 +2766,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="34" customFormat="1">
+    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33" t="s">
         <v>253</v>
       </c>
@@ -2750,7 +2777,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="34" customFormat="1">
+    <row r="22" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33" t="s">
         <v>260</v>
       </c>
@@ -2761,7 +2788,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="34" customFormat="1">
+    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33" t="s">
         <v>261</v>
       </c>
@@ -2772,7 +2799,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -2783,7 +2810,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -2802,14 +2829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2819,17 +2846,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
@@ -2852,7 +2879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -2871,7 +2898,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -2890,7 +2917,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -2909,7 +2936,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -2928,7 +2955,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>5</v>
       </c>
@@ -2947,7 +2974,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -2964,7 +2991,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -2981,7 +3008,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -3002,7 +3029,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>9</v>
       </c>
@@ -3021,7 +3048,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>10</v>
       </c>
@@ -3048,20 +3075,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>245</v>
       </c>
@@ -3069,7 +3096,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>148</v>
       </c>
@@ -3077,7 +3104,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>149</v>
       </c>
@@ -3085,7 +3112,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>150</v>
       </c>
@@ -3093,7 +3120,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>151</v>
       </c>
@@ -3101,7 +3128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>152</v>
       </c>
@@ -3109,7 +3136,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>153</v>
       </c>
@@ -3117,7 +3144,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>154</v>
       </c>
@@ -3125,7 +3152,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>155</v>
       </c>
@@ -3133,7 +3160,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>156</v>
       </c>
@@ -3141,7 +3168,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>157</v>
       </c>
@@ -3149,7 +3176,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>246</v>
       </c>
@@ -3157,7 +3184,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>158</v>
       </c>
@@ -3165,7 +3192,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>159</v>
       </c>
@@ -3173,7 +3200,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>160</v>
       </c>
@@ -3181,7 +3208,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>161</v>
       </c>
@@ -3189,7 +3216,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>162</v>
       </c>
@@ -3197,7 +3224,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>163</v>
       </c>
@@ -3205,7 +3232,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>164</v>
       </c>
@@ -3213,7 +3240,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>165</v>
       </c>
@@ -3221,7 +3248,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>166</v>
       </c>
@@ -3229,7 +3256,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>167</v>
       </c>
@@ -3237,7 +3264,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>168</v>
       </c>
@@ -3245,7 +3272,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>169</v>
       </c>
@@ -3253,7 +3280,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>170</v>
       </c>
@@ -3261,7 +3288,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>171</v>
       </c>
@@ -3269,7 +3296,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>172</v>
       </c>
@@ -3277,7 +3304,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>173</v>
       </c>
@@ -3285,7 +3312,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>174</v>
       </c>
@@ -3293,7 +3320,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>175</v>
       </c>
@@ -3301,7 +3328,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>176</v>
       </c>
@@ -3309,7 +3336,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>177</v>
       </c>
@@ -3317,7 +3344,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>178</v>
       </c>
@@ -3325,7 +3352,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>179</v>
       </c>
@@ -3333,7 +3360,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>180</v>
       </c>
@@ -3341,7 +3368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>181</v>
       </c>
@@ -3349,7 +3376,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>182</v>
       </c>
@@ -3357,7 +3384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>183</v>
       </c>
@@ -3365,7 +3392,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>184</v>
       </c>
@@ -3373,7 +3400,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>185</v>
       </c>
@@ -3381,7 +3408,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>186</v>
       </c>
@@ -3389,7 +3416,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>187</v>
       </c>
@@ -3397,7 +3424,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>188</v>
       </c>
@@ -3405,7 +3432,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>189</v>
       </c>
@@ -3413,7 +3440,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>190</v>
       </c>
@@ -3421,7 +3448,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>191</v>
       </c>
@@ -3429,7 +3456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>192</v>
       </c>
@@ -3437,7 +3464,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>193</v>
       </c>
@@ -3445,7 +3472,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>194</v>
       </c>
@@ -3453,7 +3480,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>195</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84483DA-0C45-456F-B02F-24F1FB79D09D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6555821B-9DDF-41C1-9E9D-C84FBD55C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1175,7 +1175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1841,7 +1841,7 @@
       <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1853,7 +1853,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
@@ -1868,7 +1868,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
@@ -1881,7 +1881,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -1896,7 +1896,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1907,7 +1907,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
@@ -1920,7 +1920,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -1933,7 +1933,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -1946,7 +1946,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
         <v>56</v>
       </c>
@@ -1959,7 +1959,7 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" s="15" customFormat="1">
       <c r="A9" s="8" t="s">
         <v>0</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7">
       <c r="A10" s="19">
         <v>1</v>
       </c>
@@ -2000,7 +2000,7 @@
       </c>
       <c r="G10" s="24"/>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>2</v>
       </c>
@@ -2018,7 +2018,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>3</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="178.2">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -2058,7 +2058,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7">
       <c r="A14" s="19">
         <v>5</v>
       </c>
@@ -2076,7 +2076,7 @@
       </c>
       <c r="G14" s="24"/>
     </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>6</v>
       </c>
@@ -2094,7 +2094,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>7</v>
       </c>
@@ -2112,7 +2112,7 @@
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>8</v>
       </c>
@@ -2130,7 +2130,7 @@
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>9</v>
       </c>
@@ -2150,7 +2150,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="237.6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" ht="178.2">
       <c r="A19" s="19">
         <v>10</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="138.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" ht="113.4">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -2190,7 +2190,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="32.4">
       <c r="A21" s="19">
         <v>12</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7">
       <c r="A22" s="19">
         <v>13</v>
       </c>
@@ -2230,7 +2230,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>14</v>
       </c>
@@ -2248,7 +2248,7 @@
       </c>
       <c r="G23" s="24"/>
     </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>15</v>
       </c>
@@ -2266,7 +2266,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>16</v>
       </c>
@@ -2284,7 +2284,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="169.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="169.8" customHeight="1">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -2304,7 +2304,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="15" customHeight="1">
       <c r="A27" s="19">
         <v>18</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" ht="32.4">
       <c r="A28" s="19">
         <v>19</v>
       </c>
@@ -2338,13 +2338,13 @@
         <v>34</v>
       </c>
       <c r="E28" s="23">
-        <v>3000</v>
+        <v>2000</v>
       </c>
       <c r="G28" s="24" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7">
       <c r="A29" s="19">
         <v>20</v>
       </c>
@@ -2362,7 +2362,7 @@
       </c>
       <c r="G29" s="24"/>
     </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>21</v>
       </c>
@@ -2382,7 +2382,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7">
       <c r="A31" s="19">
         <v>22</v>
       </c>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="81">
       <c r="A32" s="19">
         <v>23</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="19">
         <v>24</v>
       </c>
@@ -2438,7 +2438,7 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7">
       <c r="A34" s="19">
         <v>25</v>
       </c>
@@ -2454,7 +2454,7 @@
       <c r="E34" s="23"/>
       <c r="G34" s="24"/>
     </row>
-    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7">
       <c r="A35" s="19">
         <v>26</v>
       </c>
@@ -2472,7 +2472,7 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="19">
         <v>27</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="19">
         <v>28</v>
       </c>
@@ -2535,7 +2535,7 @@
       <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2543,7 +2543,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2554,7 +2554,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
         <v>77</v>
       </c>
@@ -2565,7 +2565,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>78</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
         <v>79</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>80</v>
       </c>
@@ -2598,7 +2598,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>81</v>
       </c>
@@ -2609,7 +2609,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>87</v>
       </c>
@@ -2620,7 +2620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:24">
       <c r="A8" s="1" t="s">
         <v>88</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:24">
       <c r="A9" s="1" t="s">
         <v>89</v>
       </c>
@@ -2642,7 +2642,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:24">
       <c r="A10" s="1" t="s">
         <v>90</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:24">
       <c r="A11" s="1" t="s">
         <v>91</v>
       </c>
@@ -2664,7 +2664,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:24">
       <c r="A12" s="1" t="s">
         <v>94</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:24">
       <c r="A13" s="1" t="s">
         <v>92</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
         <v>143</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
         <v>63</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:24">
       <c r="A16" s="1" t="s">
         <v>74</v>
       </c>
@@ -2722,7 +2722,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
         <v>97</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" s="34" customFormat="1">
       <c r="A18" s="33" t="s">
         <v>250</v>
       </c>
@@ -2744,7 +2744,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" s="34" customFormat="1">
       <c r="A19" s="33" t="s">
         <v>251</v>
       </c>
@@ -2755,7 +2755,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" s="34" customFormat="1">
       <c r="A20" s="33" t="s">
         <v>252</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" s="34" customFormat="1">
       <c r="A21" s="33" t="s">
         <v>253</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="22" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" s="34" customFormat="1">
       <c r="A22" s="33" t="s">
         <v>260</v>
       </c>
@@ -2788,7 +2788,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="23" spans="1:3" s="34" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" s="34" customFormat="1">
       <c r="A23" s="33" t="s">
         <v>261</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
         <v>110</v>
       </c>
@@ -2810,7 +2810,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
         <v>145</v>
       </c>
@@ -2836,7 +2836,7 @@
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2846,17 +2846,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -2898,7 +2898,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -2936,7 +2936,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -2955,7 +2955,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="16">
         <v>5</v>
       </c>
@@ -2974,7 +2974,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1">
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -3008,7 +3008,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8">
       <c r="B14" s="16">
         <v>9</v>
       </c>
@@ -3048,7 +3048,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="B15" s="16">
         <v>10</v>
       </c>
@@ -3082,13 +3082,13 @@
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
         <v>245</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
         <v>148</v>
       </c>
@@ -3104,7 +3104,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
         <v>149</v>
       </c>
@@ -3112,7 +3112,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
         <v>150</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
         <v>151</v>
       </c>
@@ -3128,7 +3128,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
         <v>152</v>
       </c>
@@ -3136,7 +3136,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
         <v>153</v>
       </c>
@@ -3144,7 +3144,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
         <v>154</v>
       </c>
@@ -3152,7 +3152,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
         <v>155</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
         <v>156</v>
       </c>
@@ -3168,7 +3168,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
         <v>157</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
         <v>246</v>
       </c>
@@ -3184,7 +3184,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
         <v>158</v>
       </c>
@@ -3192,7 +3192,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
         <v>159</v>
       </c>
@@ -3200,7 +3200,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
         <v>160</v>
       </c>
@@ -3208,7 +3208,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
         <v>161</v>
       </c>
@@ -3216,7 +3216,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
         <v>162</v>
       </c>
@@ -3224,7 +3224,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
         <v>163</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
         <v>164</v>
       </c>
@@ -3240,7 +3240,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
         <v>165</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
         <v>166</v>
       </c>
@@ -3256,7 +3256,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
         <v>167</v>
       </c>
@@ -3264,7 +3264,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
         <v>168</v>
       </c>
@@ -3272,7 +3272,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
         <v>169</v>
       </c>
@@ -3280,7 +3280,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
         <v>170</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
         <v>171</v>
       </c>
@@ -3296,7 +3296,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
         <v>172</v>
       </c>
@@ -3304,7 +3304,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
         <v>173</v>
       </c>
@@ -3312,7 +3312,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
         <v>174</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
         <v>175</v>
       </c>
@@ -3328,7 +3328,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
         <v>176</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
         <v>177</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
         <v>178</v>
       </c>
@@ -3352,7 +3352,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
         <v>179</v>
       </c>
@@ -3360,7 +3360,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
         <v>180</v>
       </c>
@@ -3368,7 +3368,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
         <v>181</v>
       </c>
@@ -3376,7 +3376,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
         <v>182</v>
       </c>
@@ -3384,7 +3384,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
         <v>183</v>
       </c>
@@ -3392,7 +3392,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
         <v>184</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
         <v>185</v>
       </c>
@@ -3408,7 +3408,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
         <v>186</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
         <v>187</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
         <v>188</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
         <v>189</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
         <v>190</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
         <v>191</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
         <v>192</v>
       </c>
@@ -3464,7 +3464,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
         <v>193</v>
       </c>
@@ -3472,7 +3472,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
         <v>194</v>
       </c>
@@ -3480,7 +3480,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
         <v>195</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6555821B-9DDF-41C1-9E9D-C84FBD55C42E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C51BA-0298-433F-92D9-907AF52E3E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="21840" windowHeight="10896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="274">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -195,14 +195,6 @@
     <t>Decimald</t>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CustNo ASC ,FacmNo ASC ,RepayCode ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -211,10 +203,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">RepayCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -239,10 +227,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">CustNo = ,AND RepayCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>RepayCode</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -314,75 +298,7 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>findL492AAEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492ABEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492ACEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492ADEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492AEEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayCode = ,AND RepayType = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayCode = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND RepayType = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RepayCode = ,AND RepayType = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND RepayCode = ,AND RepayType = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492AFEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492AGEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492AHEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492AIEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492AJEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>findL4002AEq</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">RepayType = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>findL492AKEq</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -404,10 +320,6 @@
 4:15日
 5:非15日</t>
     <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">CustNo = ,AND FacmNo = ,AND RepayType = </t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
@@ -1154,6 +1066,26 @@
 9:其他
 11:債協匯入款(虛擬帳號為9510500NNNNNNN)
 12:催收收回</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">AcDate = ,AND BatchNo = </t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL492AEq</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate = ,AND BatchNo = ,AND CustNo = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo = ,AND AcDate = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>暫收冲正固定為RESV00</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1837,8 +1769,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1872,7 +1804,7 @@
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>138</v>
+        <v>116</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1887,7 +1819,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="12" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1913,7 +1845,7 @@
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
-        <v>140</v>
+        <v>118</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1926,7 +1858,7 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1939,7 +1871,7 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1948,11 +1880,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1987,7 +1919,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C10" s="20" t="s">
         <v>19</v>
@@ -2016,17 +1948,19 @@
       <c r="E11" s="23">
         <v>6</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>272</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>3</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>29</v>
@@ -2043,10 +1977,10 @@
         <v>4</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>29</v>
@@ -2055,7 +1989,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>290</v>
+        <v>273</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2063,10 +1997,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>257</v>
+        <v>235</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>30</v>
@@ -2081,7 +2015,7 @@
         <v>6</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C15" s="20" t="s">
         <v>21</v>
@@ -2099,7 +2033,7 @@
         <v>7</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>96</v>
+        <v>75</v>
       </c>
       <c r="C16" s="20" t="s">
         <v>22</v>
@@ -2135,10 +2069,10 @@
         <v>9</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C18" s="21" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D18" s="22" t="s">
         <v>34</v>
@@ -2147,7 +2081,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="178.2">
@@ -2155,7 +2089,7 @@
         <v>10</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="C19" s="22" t="s">
         <v>24</v>
@@ -2167,7 +2101,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>289</v>
+        <v>267</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="113.4">
@@ -2175,10 +2109,10 @@
         <v>11</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>273</v>
+        <v>251</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>41</v>
@@ -2187,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -2207,7 +2141,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>147</v>
+        <v>125</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2215,10 +2149,10 @@
         <v>13</v>
       </c>
       <c r="B22" s="20" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>248</v>
+        <v>226</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>29</v>
@@ -2227,7 +2161,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>249</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2235,10 +2169,10 @@
         <v>14</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>247</v>
+        <v>225</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>31</v>
@@ -2253,7 +2187,7 @@
         <v>15</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C24" s="20" t="s">
         <v>25</v>
@@ -2271,7 +2205,7 @@
         <v>16</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C25" s="20" t="s">
         <v>26</v>
@@ -2289,10 +2223,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>146</v>
+        <v>124</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>30</v>
@@ -2301,7 +2235,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1">
@@ -2309,19 +2243,19 @@
         <v>18</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E27" s="23">
         <v>5</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4">
@@ -2329,10 +2263,10 @@
         <v>19</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>34</v>
@@ -2341,7 +2275,7 @@
         <v>2000</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>286</v>
+        <v>264</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2349,7 +2283,7 @@
         <v>20</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C29" s="21" t="s">
         <v>27</v>
@@ -2367,7 +2301,7 @@
         <v>21</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="C30" s="21" t="s">
         <v>28</v>
@@ -2379,7 +2313,7 @@
         <v>8</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>112</v>
+        <v>90</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2405,7 +2339,7 @@
         <v>23</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>139</v>
+        <v>117</v>
       </c>
       <c r="C32" s="21" t="s">
         <v>37</v>
@@ -2417,7 +2351,7 @@
         <v>1</v>
       </c>
       <c r="G32" s="24" t="s">
-        <v>98</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2425,7 +2359,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>256</v>
+        <v>234</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>38</v>
@@ -2443,13 +2377,13 @@
         <v>25</v>
       </c>
       <c r="B34" s="25" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="D34" s="25" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E34" s="23"/>
       <c r="G34" s="24"/>
@@ -2459,13 +2393,13 @@
         <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>103</v>
+        <v>81</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E35" s="23">
         <v>6</v>
@@ -2477,13 +2411,13 @@
         <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
@@ -2493,13 +2427,13 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C37" s="21" t="s">
-        <v>109</v>
+        <v>87</v>
       </c>
       <c r="D37" s="25" t="s">
-        <v>105</v>
+        <v>83</v>
       </c>
       <c r="E37" s="23">
         <v>6</v>
@@ -2528,11 +2462,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:X25"/>
+  <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2556,269 +2490,159 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>77</v>
+        <v>269</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>83</v>
+        <v>271</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>48</v>
+        <v>268</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>49</v>
+      <c r="X4" s="1" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>80</v>
+        <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>51</v>
+        <v>242</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>49</v>
+        <v>119</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>241</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>49</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>243</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>288</v>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="34" customFormat="1">
+      <c r="A8" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="34" customFormat="1">
+      <c r="A9" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C9" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="34" customFormat="1">
+      <c r="A10" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>245</v>
+      </c>
+      <c r="C10" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="34" customFormat="1">
+      <c r="A11" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="34" customFormat="1">
+      <c r="A12" s="33" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>249</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="34" customFormat="1">
+      <c r="A13" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>250</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X14" s="1" t="s">
-        <v>49</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>63</v>
+        <v>123</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>247</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="16" spans="1:24">
-      <c r="A16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>263</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" s="34" customFormat="1">
-      <c r="A18" s="33" t="s">
-        <v>250</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C18" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" s="34" customFormat="1">
-      <c r="A19" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>266</v>
-      </c>
-      <c r="C19" s="33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" s="34" customFormat="1">
-      <c r="A20" s="33" t="s">
-        <v>252</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" s="34" customFormat="1">
-      <c r="A21" s="33" t="s">
         <v>253</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>270</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" s="34" customFormat="1">
-      <c r="A22" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>271</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" s="34" customFormat="1">
-      <c r="A23" s="33" t="s">
-        <v>261</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>272</v>
-      </c>
-      <c r="C23" s="33" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>269</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2848,12 +2672,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2884,10 +2708,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>115</v>
+        <v>93</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>34</v>
@@ -2903,13 +2727,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>116</v>
+        <v>94</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -2922,13 +2746,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="F8" s="16">
         <v>14</v>
@@ -2941,13 +2765,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -2960,10 +2784,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>126</v>
+        <v>104</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>127</v>
+        <v>105</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>34</v>
@@ -2979,13 +2803,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>128</v>
+        <v>106</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>131</v>
+        <v>109</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>133</v>
+        <v>111</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2996,13 +2820,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>129</v>
+        <v>107</v>
       </c>
       <c r="D12" s="28" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -3013,20 +2837,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>135</v>
+        <v>113</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>134</v>
+        <v>112</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="30" t="s">
-        <v>136</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -3034,13 +2858,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>276</v>
+        <v>254</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>278</v>
+        <v>256</v>
       </c>
       <c r="F14" s="16">
         <v>3</v>
@@ -3053,13 +2877,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>280</v>
+        <v>258</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>279</v>
+        <v>257</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>281</v>
+        <v>259</v>
       </c>
       <c r="F15" s="16">
         <v>8</v>
@@ -3090,402 +2914,402 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="B1" t="s">
-        <v>196</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>148</v>
+        <v>126</v>
       </c>
       <c r="B2" t="s">
-        <v>197</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>149</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s">
-        <v>198</v>
+        <v>176</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>150</v>
+        <v>128</v>
       </c>
       <c r="B4" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>151</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B6" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
-        <v>202</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>154</v>
+        <v>132</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>204</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
-        <v>156</v>
+        <v>134</v>
       </c>
       <c r="B10" t="s">
-        <v>205</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
-        <v>157</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
+        <v>184</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
-        <v>246</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
-        <v>158</v>
+        <v>136</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>159</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
-        <v>160</v>
+        <v>138</v>
       </c>
       <c r="B15" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s">
-        <v>215</v>
+        <v>193</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>194</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>195</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="B23" t="s">
-        <v>218</v>
+        <v>196</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="B25" t="s">
-        <v>220</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="B26" t="s">
-        <v>221</v>
+        <v>199</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="B27" t="s">
-        <v>222</v>
+        <v>200</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="B28" t="s">
-        <v>223</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>224</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
       <c r="B30" t="s">
-        <v>225</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
       <c r="B31" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>177</v>
+        <v>155</v>
       </c>
       <c r="B32" t="s">
-        <v>227</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="B33" t="s">
-        <v>228</v>
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>179</v>
+        <v>157</v>
       </c>
       <c r="B34" t="s">
-        <v>229</v>
+        <v>207</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>180</v>
+        <v>158</v>
       </c>
       <c r="B35" t="s">
-        <v>230</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>181</v>
+        <v>159</v>
       </c>
       <c r="B36" t="s">
-        <v>231</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>182</v>
+        <v>160</v>
       </c>
       <c r="B37" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>183</v>
+        <v>161</v>
       </c>
       <c r="B38" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="B39" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="B40" t="s">
-        <v>235</v>
+        <v>213</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>186</v>
+        <v>164</v>
       </c>
       <c r="B41" t="s">
-        <v>236</v>
+        <v>214</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>187</v>
+        <v>165</v>
       </c>
       <c r="B42" t="s">
-        <v>237</v>
+        <v>215</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>188</v>
+        <v>166</v>
       </c>
       <c r="B43" t="s">
-        <v>238</v>
+        <v>216</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
-        <v>189</v>
+        <v>167</v>
       </c>
       <c r="B44" t="s">
-        <v>239</v>
+        <v>217</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>190</v>
+        <v>168</v>
       </c>
       <c r="B45" t="s">
-        <v>240</v>
+        <v>218</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="B46" t="s">
-        <v>241</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="B47" t="s">
-        <v>226</v>
+        <v>204</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
-        <v>193</v>
+        <v>171</v>
       </c>
       <c r="B48" t="s">
-        <v>242</v>
+        <v>220</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>194</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
-        <v>195</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{784C51BA-0298-433F-92D9-907AF52E3E4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E89EF1-B589-4CB5-8388-0843B2A8E385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="277">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1099,7 +1099,19 @@
 07:代收款-債權協商
 09:其他
 11:匯款轉帳預先作業
-90:暫收抵繳</t>
+90:暫收抵繳
+99:暫收沖正</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherNote</t>
+  </si>
+  <si>
+    <t>其他說明</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>jsonformat</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1767,10 +1779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G37"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1972,7 +1984,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="178.2">
+    <row r="13" spans="1:7" ht="194.4">
       <c r="A13" s="19">
         <v>4</v>
       </c>
@@ -2283,109 +2295,113 @@
         <v>20</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>57</v>
+        <v>274</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>27</v>
+        <v>275</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="19">
-        <v>6</v>
-      </c>
-      <c r="G29" s="24"/>
+        <v>34</v>
+      </c>
+      <c r="E29" s="23">
+        <v>2000</v>
+      </c>
+      <c r="G29" s="24" t="s">
+        <v>276</v>
+      </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>21</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E30" s="19">
-        <v>8</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>90</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G30" s="24"/>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="19">
         <v>22</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="23">
+        <v>30</v>
+      </c>
+      <c r="E31" s="19">
         <v>8</v>
       </c>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7" ht="81">
+      <c r="G31" s="24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="19">
         <v>23</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>117</v>
+        <v>39</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="G32" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
+        <v>8</v>
+      </c>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" ht="81">
       <c r="A33" s="19">
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>234</v>
+        <v>117</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="E33" s="23">
-        <v>6</v>
-      </c>
-      <c r="G33" s="24"/>
+        <v>1</v>
+      </c>
+      <c r="G33" s="24" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="34" spans="1:7">
       <c r="A34" s="19">
         <v>25</v>
       </c>
-      <c r="B34" s="25" t="s">
-        <v>78</v>
+      <c r="B34" s="20" t="s">
+        <v>234</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="23"/>
+        <v>38</v>
+      </c>
+      <c r="D34" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="23">
+        <v>6</v>
+      </c>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="1:7">
@@ -2393,17 +2409,15 @@
         <v>26</v>
       </c>
       <c r="B35" s="25" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D35" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="E35" s="23">
-        <v>6</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="E35" s="23"/>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="1:7">
@@ -2411,15 +2425,17 @@
         <v>27</v>
       </c>
       <c r="B36" s="25" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C36" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D36" s="25" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" s="23"/>
+        <v>83</v>
+      </c>
+      <c r="E36" s="23">
+        <v>6</v>
+      </c>
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="1:7">
@@ -2427,18 +2443,34 @@
         <v>28</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>84</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" s="23"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7">
+      <c r="A38" s="19">
+        <v>29</v>
+      </c>
+      <c r="B38" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D38" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E38" s="23">
         <v>6</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G38" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E89EF1-B589-4CB5-8388-0843B2A8E385}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -950,41 +949,6 @@
 P04:銀行存款－台新
 TEM:員工扣薪15/非15???
 TCK:支票</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">CdCode.ProcStsCode
-0:未檢核
-1:失敗
-2:人工處理
-3:檢核錯誤
-4:檢核正常
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="思源宋體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t>5:單筆入帳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="思源宋體"/>
-        <family val="1"/>
-        <charset val="136"/>
-      </rPr>
-      <t xml:space="preserve">
-6;批次入帳
-7;轉暫收
-D:刪除  </t>
-    </r>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1114,11 +1078,46 @@
     <t>jsonformat</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">CdCode.ProcStsCode
+0:未檢核
+1:失敗
+2:人工處理
+3:檢核錯誤
+4:檢核正常
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="思源宋體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t>5:單筆入帳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="思源宋體"/>
+        <family val="1"/>
+        <charset val="136"/>
+      </rPr>
+      <t xml:space="preserve">
+6;批次入帳
+7;批次入帳後訂正
+D:刪除  </t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1441,8 +1440,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1534,23 +1533,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1586,23 +1568,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1778,11 +1743,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1961,7 +1926,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2001,7 +1966,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2113,7 +2078,7 @@
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="113.4">
@@ -2230,7 +2195,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="169.8" customHeight="1">
+    <row r="26" spans="1:7" ht="183.6" customHeight="1">
       <c r="A26" s="19">
         <v>17</v>
       </c>
@@ -2247,7 +2212,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>262</v>
+        <v>276</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1">
@@ -2267,7 +2232,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4">
@@ -2287,7 +2252,7 @@
         <v>2000</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2295,10 +2260,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="20" t="s">
+        <v>273</v>
+      </c>
+      <c r="C29" s="21" t="s">
         <v>274</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>275</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>34</v>
@@ -2307,7 +2272,7 @@
         <v>2000</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2485,7 +2450,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" location="ProcCode!A1" display="ProcCode!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G27" location="ProcCode!A1" display="ProcCode!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2493,7 +2458,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2522,10 +2487,10 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -2536,10 +2501,10 @@
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -2594,7 +2559,7 @@
         <v>228</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C8" s="33" t="s">
         <v>120</v>
@@ -2641,7 +2606,7 @@
         <v>249</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="34" customFormat="1">
@@ -2685,7 +2650,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2931,7 +2896,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1108,7 +1108,7 @@
       </rPr>
       <t xml:space="preserve">
 6;批次入帳
-7;批次入帳後訂正
+7;批次人工
 D:刪除  </t>
     </r>
     <phoneticPr fontId="10" type="noConversion"/>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="276">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -365,10 +365,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>批號後兩碼+明細序號</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">SELECT  JSON_VALUE  ("ProcNote",  '$.CaseCloseCode') AS CaseCloseCode
 </t>
     <phoneticPr fontId="10" type="noConversion"/>
@@ -939,16 +935,6 @@
   </si>
   <si>
     <t>支票：帳號(9)+票號(7)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>CdCode.ReconCode
-P01:銀行存款－郵局
-P02:銀行存款－新光
-A1~A7 (P03銀行存款－新光匯款轉帳)
-P04:銀行存款－台新
-TEM:員工扣薪15/非15???
-TCK:支票</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1111,6 +1097,15 @@
 7;批次人工
 D:刪除  </t>
     </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ReconCode
+P01:銀行存款－郵局
+C01:暫收款－非核心運用
+A1~A7:  (帳務:P03:銀行存款－新光)
+TEM:員工扣薪15/非15
+TCK:支票</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1746,8 +1741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1781,7 +1776,7 @@
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1822,7 +1817,7 @@
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1926,7 +1921,7 @@
         <v>6</v>
       </c>
       <c r="G11" s="24" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1966,7 +1961,7 @@
         <v>2</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1974,10 +1969,10 @@
         <v>5</v>
       </c>
       <c r="B14" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="D14" s="22" t="s">
         <v>30</v>
@@ -2058,7 +2053,7 @@
         <v>30</v>
       </c>
       <c r="G18" s="24" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="178.2">
@@ -2078,10 +2073,10 @@
         <v>2</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="113.4">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="97.2">
       <c r="A20" s="19">
         <v>11</v>
       </c>
@@ -2089,7 +2084,7 @@
         <v>74</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D20" s="22" t="s">
         <v>41</v>
@@ -2098,7 +2093,7 @@
         <v>3</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>261</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32.4">
@@ -2118,7 +2113,7 @@
         <v>18</v>
       </c>
       <c r="G21" s="21" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2129,7 +2124,7 @@
         <v>72</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D22" s="25" t="s">
         <v>29</v>
@@ -2138,7 +2133,7 @@
         <v>14</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2149,7 +2144,7 @@
         <v>63</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>31</v>
@@ -2200,10 +2195,10 @@
         <v>17</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C26" s="21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D26" s="22" t="s">
         <v>30</v>
@@ -2212,7 +2207,7 @@
         <v>1</v>
       </c>
       <c r="G26" s="24" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="15" customHeight="1">
@@ -2223,7 +2218,7 @@
         <v>71</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>52</v>
@@ -2232,7 +2227,7 @@
         <v>5</v>
       </c>
       <c r="G27" s="32" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="32.4">
@@ -2252,7 +2247,7 @@
         <v>2000</v>
       </c>
       <c r="G28" s="24" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2260,10 +2255,10 @@
         <v>20</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>34</v>
@@ -2272,7 +2267,7 @@
         <v>2000</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2309,9 +2304,7 @@
       <c r="E31" s="19">
         <v>8</v>
       </c>
-      <c r="G31" s="24" t="s">
-        <v>90</v>
-      </c>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="19">
@@ -2336,7 +2329,7 @@
         <v>24</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C33" s="21" t="s">
         <v>37</v>
@@ -2356,7 +2349,7 @@
         <v>25</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>38</v>
@@ -2487,10 +2480,10 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>268</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>270</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
@@ -2501,18 +2494,18 @@
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -2526,10 +2519,10 @@
         <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -2537,10 +2530,10 @@
         <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -2548,76 +2541,76 @@
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="34" customFormat="1">
       <c r="A8" s="33" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="34" customFormat="1">
       <c r="A9" s="33" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="34" customFormat="1">
       <c r="A10" s="33" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="34" customFormat="1">
       <c r="A11" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C11" s="33" t="s">
         <v>231</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="34" customFormat="1">
       <c r="A12" s="33" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="34" customFormat="1">
       <c r="A13" s="33" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -2625,21 +2618,21 @@
         <v>88</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>
@@ -2669,12 +2662,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2705,10 +2698,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>34</v>
@@ -2724,13 +2717,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>95</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -2743,13 +2736,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>99</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F8" s="16">
         <v>14</v>
@@ -2762,13 +2755,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>103</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -2781,10 +2774,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>104</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>105</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>34</v>
@@ -2800,13 +2793,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2817,13 +2810,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>107</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>108</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -2834,20 +2827,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2855,13 +2848,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>253</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>254</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="E14" s="16" t="s">
         <v>255</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>256</v>
       </c>
       <c r="F14" s="16">
         <v>3</v>
@@ -2874,13 +2867,13 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>257</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>258</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>259</v>
       </c>
       <c r="F15" s="16">
         <v>8</v>
@@ -2911,402 +2904,402 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B11" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B16" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B22" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B23" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B24" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B25" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B26" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B30" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B31" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B32" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B36" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B37" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B38" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B40" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B41" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B42" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B43" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B44" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B45" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B47" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B49" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B50" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36B452-1E40-4E23-AFE9-E8A901EF71B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="278">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1108,12 +1109,19 @@
 TCK:支票</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>AcDate,TitaTlrNo,TitaTxtNo</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>Index5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1435,8 +1443,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1528,6 +1536,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1563,6 +1588,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1738,14 +1780,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1757,7 +1799,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
@@ -1772,7 +1814,7 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
@@ -1785,7 +1827,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -1800,7 +1842,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1811,7 +1853,7 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
@@ -1824,7 +1866,7 @@
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -1837,7 +1879,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -1850,7 +1892,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="35" t="s">
         <v>53</v>
       </c>
@@ -1863,324 +1905,319 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" s="15" customFormat="1">
-      <c r="A9" s="8" t="s">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="B9" s="36"/>
+      <c r="C9" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9" s="13"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="8" t="s">
+      <c r="D10" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="8" t="s">
+      <c r="E10" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="8" t="s">
+      <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G10" s="14" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="19">
         <v>1</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B11" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C11" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D11" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E11" s="23">
         <v>8</v>
       </c>
-      <c r="G10" s="24"/>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="19">
         <v>2</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B12" s="21" t="s">
         <v>33</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C12" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D12" s="22" t="s">
         <v>30</v>
-      </c>
-      <c r="E11" s="23">
-        <v>6</v>
-      </c>
-      <c r="G11" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
-        <v>3</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>29</v>
       </c>
       <c r="E12" s="23">
         <v>6</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="194.4">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="19">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>67</v>
+        <v>89</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E13" s="23">
+        <v>6</v>
+      </c>
+      <c r="G13" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="237.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="19">
+        <v>4</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="23">
         <v>2</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G14" s="24" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="19">
         <v>5</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B15" s="20" t="s">
         <v>234</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C15" s="20" t="s">
         <v>235</v>
       </c>
-      <c r="D14" s="22" t="s">
+      <c r="D15" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E15" s="23">
         <v>50</v>
       </c>
-      <c r="G14" s="24"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="19">
         <v>6</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B16" s="20" t="s">
         <v>60</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C16" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="25" t="s">
+      <c r="D16" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E16" s="23">
         <v>8</v>
       </c>
-      <c r="G15" s="24"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="19">
         <v>7</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B17" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C17" s="20" t="s">
         <v>22</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="23">
-        <v>7</v>
-      </c>
-      <c r="G16" s="24"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="19">
-        <v>8</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>23</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="23">
+        <v>7</v>
+      </c>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="19">
+        <v>8</v>
+      </c>
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="23">
         <v>3</v>
       </c>
-      <c r="G17" s="24"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="19">
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="19">
         <v>9</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B19" s="20" t="s">
         <v>68</v>
       </c>
-      <c r="C18" s="21" t="s">
+      <c r="C19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D19" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E19" s="23">
         <v>30</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G19" s="24" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="178.2">
-      <c r="A19" s="19">
+    <row r="20" spans="1:7" ht="237.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="19">
         <v>10</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B20" s="20" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C20" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="D19" s="25" t="s">
+      <c r="D20" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E20" s="23">
         <v>2</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G20" s="24" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="97.2">
-      <c r="A20" s="19">
+    <row r="21" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="19">
         <v>11</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B21" s="20" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C21" s="22" t="s">
         <v>250</v>
-      </c>
-      <c r="D20" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="E20" s="23">
-        <v>3</v>
-      </c>
-      <c r="G20" s="24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32.4">
-      <c r="A21" s="19">
-        <v>12</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="21" t="s">
-        <v>44</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>41</v>
       </c>
       <c r="E21" s="23">
+        <v>3</v>
+      </c>
+      <c r="G21" s="24" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="19">
+        <v>12</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="23">
         <v>18</v>
       </c>
-      <c r="G21" s="21" t="s">
+      <c r="G22" s="21" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="19">
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="19">
         <v>13</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B23" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C23" s="22" t="s">
         <v>225</v>
       </c>
-      <c r="D22" s="25" t="s">
+      <c r="D23" s="25" t="s">
         <v>29</v>
-      </c>
-      <c r="E22" s="19">
-        <v>14</v>
-      </c>
-      <c r="G22" s="24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="19">
-        <v>14</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C23" s="22" t="s">
-        <v>224</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>31</v>
       </c>
       <c r="E23" s="19">
         <v>14</v>
       </c>
-      <c r="G23" s="24"/>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="G23" s="24" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="19">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>25</v>
+        <v>63</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>224</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E24" s="19">
         <v>14</v>
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="19">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>64</v>
+        <v>51</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D25" s="25" t="s">
         <v>32</v>
@@ -2190,75 +2227,73 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="183.6" customHeight="1">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="19">
+        <v>16</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" s="19">
+        <v>14</v>
+      </c>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" ht="183.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="19">
         <v>17</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B27" s="20" t="s">
         <v>251</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="D26" s="22" t="s">
+      <c r="D27" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E27" s="23">
         <v>1</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G27" s="24" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15" customHeight="1">
-      <c r="A27" s="19">
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19">
         <v>18</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B28" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C28" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D28" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E28" s="23">
         <v>5</v>
       </c>
-      <c r="G27" s="32" t="s">
+      <c r="G28" s="32" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="32.4">
-      <c r="A28" s="19">
+    <row r="29" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="19">
         <v>19</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B29" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C29" s="21" t="s">
         <v>65</v>
-      </c>
-      <c r="D28" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" s="23">
-        <v>2000</v>
-      </c>
-      <c r="G28" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" s="19">
-        <v>20</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>271</v>
-      </c>
-      <c r="C29" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="D29" s="22" t="s">
         <v>34</v>
@@ -2267,171 +2302,192 @@
         <v>2000</v>
       </c>
       <c r="G29" s="24" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="19">
+        <v>20</v>
+      </c>
+      <c r="B30" s="20" t="s">
+        <v>271</v>
+      </c>
+      <c r="C30" s="21" t="s">
+        <v>272</v>
+      </c>
+      <c r="D30" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="23">
+        <v>2000</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="19">
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="19">
         <v>21</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C31" s="21" t="s">
         <v>27</v>
-      </c>
-      <c r="D30" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="19">
-        <v>6</v>
-      </c>
-      <c r="G30" s="24"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="19">
-        <v>22</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C31" s="21" t="s">
-        <v>28</v>
       </c>
       <c r="D31" s="22" t="s">
         <v>30</v>
       </c>
       <c r="E31" s="19">
+        <v>6</v>
+      </c>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="19">
+        <v>22</v>
+      </c>
+      <c r="B32" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" s="19">
         <v>8</v>
       </c>
-      <c r="G31" s="24"/>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="19">
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="19">
         <v>23</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B33" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C33" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D33" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E33" s="23">
         <v>8</v>
       </c>
-      <c r="G32" s="24"/>
-    </row>
-    <row r="33" spans="1:7" ht="81">
-      <c r="A33" s="19">
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="A34" s="19">
         <v>24</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B34" s="20" t="s">
         <v>116</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C34" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D34" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E34" s="23">
         <v>1</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G34" s="24" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:7">
-      <c r="A34" s="19">
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="19">
         <v>25</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B35" s="20" t="s">
         <v>233</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C35" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D35" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E35" s="23">
         <v>6</v>
       </c>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" s="19">
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="19">
         <v>26</v>
       </c>
-      <c r="B35" s="25" t="s">
+      <c r="B36" s="25" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C36" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="D35" s="25" t="s">
+      <c r="D36" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E35" s="23"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" s="19">
+      <c r="E36" s="23"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="19">
         <v>27</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B37" s="25" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C37" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D37" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E37" s="23">
         <v>6</v>
       </c>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" s="19">
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="19">
         <v>28</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B38" s="25" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C38" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D38" s="25" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="23"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="1:7">
-      <c r="A38" s="19">
+      <c r="E38" s="23"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="19">
         <v>29</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B39" s="25" t="s">
         <v>86</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C39" s="21" t="s">
         <v>87</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D39" s="25" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E39" s="23">
         <v>6</v>
       </c>
-      <c r="G38" s="24"/>
+      <c r="G39" s="24"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
+    <mergeCell ref="A9:B9"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
@@ -2443,7 +2499,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G27" location="ProcCode!A1" display="ProcCode!A1"/>
+    <hyperlink ref="G28" location="ProcCode!A1" display="ProcCode!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2451,7 +2507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2459,7 +2515,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2467,7 +2523,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2478,7 +2534,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>266</v>
       </c>
@@ -2489,7 +2545,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:24">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
@@ -2500,7 +2556,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>120</v>
       </c>
@@ -2514,7 +2570,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
@@ -2525,7 +2581,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="6" spans="1:24">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
@@ -2536,7 +2592,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
@@ -2547,7 +2603,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="34" customFormat="1">
+    <row r="8" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>227</v>
       </c>
@@ -2558,7 +2614,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="34" customFormat="1">
+    <row r="9" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>228</v>
       </c>
@@ -2569,7 +2625,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="34" customFormat="1">
+    <row r="10" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>229</v>
       </c>
@@ -2580,7 +2636,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="34" customFormat="1">
+    <row r="11" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33" t="s">
         <v>230</v>
       </c>
@@ -2591,7 +2647,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="34" customFormat="1">
+    <row r="12" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33" t="s">
         <v>237</v>
       </c>
@@ -2602,7 +2658,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="34" customFormat="1">
+    <row r="13" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33" t="s">
         <v>238</v>
       </c>
@@ -2613,7 +2669,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="14" spans="1:24">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>88</v>
       </c>
@@ -2624,7 +2680,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>122</v>
       </c>
@@ -2643,14 +2699,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2660,17 +2716,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
@@ -2693,7 +2749,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>1</v>
       </c>
@@ -2712,7 +2768,7 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>2</v>
       </c>
@@ -2731,7 +2787,7 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>3</v>
       </c>
@@ -2750,7 +2806,7 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>4</v>
       </c>
@@ -2769,7 +2825,7 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>5</v>
       </c>
@@ -2788,7 +2844,7 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>6</v>
       </c>
@@ -2805,7 +2861,7 @@
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>7</v>
       </c>
@@ -2822,7 +2878,7 @@
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>8</v>
       </c>
@@ -2843,7 +2899,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>9</v>
       </c>
@@ -2862,7 +2918,7 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>10</v>
       </c>
@@ -2889,20 +2945,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>222</v>
       </c>
@@ -2910,7 +2966,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>125</v>
       </c>
@@ -2918,7 +2974,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="31" t="s">
         <v>126</v>
       </c>
@@ -2926,7 +2982,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="31" t="s">
         <v>127</v>
       </c>
@@ -2934,7 +2990,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="31" t="s">
         <v>128</v>
       </c>
@@ -2942,7 +2998,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="31" t="s">
         <v>129</v>
       </c>
@@ -2950,7 +3006,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="31" t="s">
         <v>130</v>
       </c>
@@ -2958,7 +3014,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="31" t="s">
         <v>131</v>
       </c>
@@ -2966,7 +3022,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="31" t="s">
         <v>132</v>
       </c>
@@ -2974,7 +3030,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="31" t="s">
         <v>133</v>
       </c>
@@ -2982,7 +3038,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="31" t="s">
         <v>134</v>
       </c>
@@ -2990,7 +3046,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="31" t="s">
         <v>223</v>
       </c>
@@ -2998,7 +3054,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="31" t="s">
         <v>135</v>
       </c>
@@ -3006,7 +3062,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>136</v>
       </c>
@@ -3014,7 +3070,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="31" t="s">
         <v>137</v>
       </c>
@@ -3022,7 +3078,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="31" t="s">
         <v>138</v>
       </c>
@@ -3030,7 +3086,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="31" t="s">
         <v>139</v>
       </c>
@@ -3038,7 +3094,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="31" t="s">
         <v>140</v>
       </c>
@@ -3046,7 +3102,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="31" t="s">
         <v>141</v>
       </c>
@@ -3054,7 +3110,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>142</v>
       </c>
@@ -3062,7 +3118,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>143</v>
       </c>
@@ -3070,7 +3126,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="31" t="s">
         <v>144</v>
       </c>
@@ -3078,7 +3134,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="31" t="s">
         <v>145</v>
       </c>
@@ -3086,7 +3142,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="31" t="s">
         <v>146</v>
       </c>
@@ -3094,7 +3150,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="31" t="s">
         <v>147</v>
       </c>
@@ -3102,7 +3158,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="31" t="s">
         <v>148</v>
       </c>
@@ -3110,7 +3166,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="31" t="s">
         <v>149</v>
       </c>
@@ -3118,7 +3174,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="31" t="s">
         <v>150</v>
       </c>
@@ -3126,7 +3182,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="31" t="s">
         <v>151</v>
       </c>
@@ -3134,7 +3190,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="31" t="s">
         <v>152</v>
       </c>
@@ -3142,7 +3198,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="31" t="s">
         <v>153</v>
       </c>
@@ -3150,7 +3206,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
         <v>154</v>
       </c>
@@ -3158,7 +3214,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
         <v>155</v>
       </c>
@@ -3166,7 +3222,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="31" t="s">
         <v>156</v>
       </c>
@@ -3174,7 +3230,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="31" t="s">
         <v>157</v>
       </c>
@@ -3182,7 +3238,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="31" t="s">
         <v>158</v>
       </c>
@@ -3190,7 +3246,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="31" t="s">
         <v>159</v>
       </c>
@@ -3198,7 +3254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>160</v>
       </c>
@@ -3206,7 +3262,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="31" t="s">
         <v>161</v>
       </c>
@@ -3214,7 +3270,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
         <v>162</v>
       </c>
@@ -3222,7 +3278,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="31" t="s">
         <v>163</v>
       </c>
@@ -3230,7 +3286,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="31" t="s">
         <v>164</v>
       </c>
@@ -3238,7 +3294,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="31" t="s">
         <v>165</v>
       </c>
@@ -3246,7 +3302,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="31" t="s">
         <v>166</v>
       </c>
@@ -3254,7 +3310,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="31" t="s">
         <v>167</v>
       </c>
@@ -3262,7 +3318,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="31" t="s">
         <v>168</v>
       </c>
@@ -3270,7 +3326,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="31" t="s">
         <v>169</v>
       </c>
@@ -3278,7 +3334,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="31" t="s">
         <v>170</v>
       </c>
@@ -3286,7 +3342,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="31" t="s">
         <v>171</v>
       </c>
@@ -3294,7 +3350,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="31" t="s">
         <v>172</v>
       </c>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B36B452-1E40-4E23-AFE9-E8A901EF71B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -312,14 +311,6 @@
   <si>
     <t>findL4200BFirst</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>1:ACH新光
-2:ACH他行
-3:郵局
-4:15日
-5:非15日</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateDate</t>
@@ -1116,12 +1107,21 @@
   <si>
     <t>Index5</t>
   </si>
+  <si>
+    <t>1:ACH新光(銀行扣款)
+2:ACH他行(銀行扣款)
+3:郵局(員工扣薪)
+4:15日(員工扣薪)
+5:非15日(員工扣薪)
+6.上傳批號後兩碼(匯款轉帳、支票兌現)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="15">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1443,8 +1443,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2 2" xfId="2"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1536,23 +1536,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1588,23 +1571,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1780,14 +1746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="16" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
@@ -1799,7 +1765,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7">
       <c r="A1" s="35" t="s">
         <v>7</v>
       </c>
@@ -1814,11 +1780,11 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7">
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1827,7 +1793,7 @@
       <c r="F2" s="11"/>
       <c r="G2" s="11"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7">
       <c r="A3" s="38" t="s">
         <v>8</v>
       </c>
@@ -1842,7 +1808,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="11"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7">
       <c r="A4" s="35" t="s">
         <v>10</v>
       </c>
@@ -1853,20 +1819,20 @@
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7">
       <c r="A5" s="38" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7">
       <c r="A6" s="35" t="s">
         <v>5</v>
       </c>
@@ -1879,7 +1845,7 @@
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7">
       <c r="A7" s="35" t="s">
         <v>6</v>
       </c>
@@ -1892,7 +1858,7 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
         <v>53</v>
       </c>
@@ -1905,20 +1871,20 @@
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7">
       <c r="A9" s="35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
     </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" s="15" customFormat="1">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7">
       <c r="A11" s="19">
         <v>1</v>
       </c>
@@ -1959,7 +1925,7 @@
       </c>
       <c r="G11" s="24"/>
     </row>
-    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>2</v>
       </c>
@@ -1976,10 +1942,10 @@
         <v>6</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="19">
         <v>3</v>
       </c>
@@ -1987,7 +1953,7 @@
         <v>62</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D13" s="25" t="s">
         <v>29</v>
@@ -1999,7 +1965,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="237.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="194.4">
       <c r="A14" s="19">
         <v>4</v>
       </c>
@@ -2016,18 +1982,18 @@
         <v>2</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="19">
         <v>5</v>
       </c>
       <c r="B15" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>235</v>
       </c>
       <c r="D15" s="22" t="s">
         <v>30</v>
@@ -2037,7 +2003,7 @@
       </c>
       <c r="G15" s="24"/>
     </row>
-    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7">
       <c r="A16" s="19">
         <v>6</v>
       </c>
@@ -2055,7 +2021,7 @@
       </c>
       <c r="G16" s="24"/>
     </row>
-    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>7</v>
       </c>
@@ -2073,7 +2039,7 @@
       </c>
       <c r="G17" s="24"/>
     </row>
-    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>8</v>
       </c>
@@ -2091,7 +2057,7 @@
       </c>
       <c r="G18" s="24"/>
     </row>
-    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7">
       <c r="A19" s="19">
         <v>9</v>
       </c>
@@ -2108,10 +2074,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="237.6" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="178.2">
       <c r="A20" s="19">
         <v>10</v>
       </c>
@@ -2128,10 +2094,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="97.2">
       <c r="A21" s="19">
         <v>11</v>
       </c>
@@ -2139,7 +2105,7 @@
         <v>74</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D21" s="22" t="s">
         <v>41</v>
@@ -2148,10 +2114,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32.4">
       <c r="A22" s="19">
         <v>12</v>
       </c>
@@ -2168,10 +2134,10 @@
         <v>18</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>13</v>
       </c>
@@ -2179,7 +2145,7 @@
         <v>72</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D23" s="25" t="s">
         <v>29</v>
@@ -2188,10 +2154,10 @@
         <v>14</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>14</v>
       </c>
@@ -2199,7 +2165,7 @@
         <v>63</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D24" s="25" t="s">
         <v>31</v>
@@ -2209,7 +2175,7 @@
       </c>
       <c r="G24" s="24"/>
     </row>
-    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7">
       <c r="A25" s="19">
         <v>15</v>
       </c>
@@ -2227,7 +2193,7 @@
       </c>
       <c r="G25" s="24"/>
     </row>
-    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7">
       <c r="A26" s="19">
         <v>16</v>
       </c>
@@ -2245,15 +2211,15 @@
       </c>
       <c r="G26" s="24"/>
     </row>
-    <row r="27" spans="1:7" ht="183.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="183.6" customHeight="1">
       <c r="A27" s="19">
         <v>17</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D27" s="22" t="s">
         <v>30</v>
@@ -2262,10 +2228,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1">
       <c r="A28" s="19">
         <v>18</v>
       </c>
@@ -2273,7 +2239,7 @@
         <v>71</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" s="22" t="s">
         <v>52</v>
@@ -2282,10 +2248,10 @@
         <v>5</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="32.4">
       <c r="A29" s="19">
         <v>19</v>
       </c>
@@ -2302,18 +2268,18 @@
         <v>2000</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="19">
         <v>20</v>
       </c>
       <c r="B30" s="20" t="s">
+        <v>270</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>271</v>
-      </c>
-      <c r="C30" s="21" t="s">
-        <v>272</v>
       </c>
       <c r="D30" s="22" t="s">
         <v>34</v>
@@ -2322,10 +2288,10 @@
         <v>2000</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="19">
         <v>21</v>
       </c>
@@ -2343,7 +2309,7 @@
       </c>
       <c r="G31" s="24"/>
     </row>
-    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7">
       <c r="A32" s="19">
         <v>22</v>
       </c>
@@ -2361,7 +2327,7 @@
       </c>
       <c r="G32" s="24"/>
     </row>
-    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7">
       <c r="A33" s="19">
         <v>23</v>
       </c>
@@ -2379,12 +2345,12 @@
       </c>
       <c r="G33" s="24"/>
     </row>
-    <row r="34" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" ht="97.2">
       <c r="A34" s="19">
         <v>24</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C34" s="21" t="s">
         <v>37</v>
@@ -2393,18 +2359,18 @@
         <v>30</v>
       </c>
       <c r="E34" s="23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="19">
         <v>25</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C35" s="21" t="s">
         <v>38</v>
@@ -2417,68 +2383,68 @@
       </c>
       <c r="G35" s="24"/>
     </row>
-    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7">
       <c r="A36" s="19">
         <v>26</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="D36" s="25" t="s">
         <v>79</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>80</v>
       </c>
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
     </row>
-    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7">
       <c r="A37" s="19">
         <v>27</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="D37" s="25" t="s">
         <v>82</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>83</v>
       </c>
       <c r="E37" s="23">
         <v>6</v>
       </c>
       <c r="G37" s="24"/>
     </row>
-    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7">
       <c r="A38" s="19">
         <v>28</v>
       </c>
       <c r="B38" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="C38" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="C38" s="21" t="s">
-        <v>85</v>
-      </c>
       <c r="D38" s="25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E38" s="23"/>
       <c r="G38" s="24"/>
     </row>
-    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7">
       <c r="A39" s="19">
         <v>29</v>
       </c>
       <c r="B39" s="25" t="s">
+        <v>85</v>
+      </c>
+      <c r="C39" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C39" s="21" t="s">
-        <v>87</v>
-      </c>
       <c r="D39" s="25" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" s="23">
         <v>6</v>
@@ -2499,7 +2465,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G28" location="ProcCode!A1" display="ProcCode!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="G28" location="ProcCode!A1" display="ProcCode!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2507,7 +2473,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
@@ -2515,7 +2481,7 @@
       <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2523,7 +2489,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:24" ht="18" customHeight="1">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2534,34 +2500,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>47</v>
@@ -2570,125 +2536,125 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
         <v>59</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
         <v>76</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="34" customFormat="1">
+      <c r="A8" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>266</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" s="34" customFormat="1">
+      <c r="A9" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="33" t="s">
-        <v>227</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>267</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="33" t="s">
+      <c r="C9" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" s="34" customFormat="1">
+      <c r="A10" s="33" t="s">
         <v>228</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B10" s="33" t="s">
         <v>243</v>
       </c>
-      <c r="C9" s="33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="33" t="s">
+      <c r="C10" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" s="34" customFormat="1">
+      <c r="A11" s="33" t="s">
         <v>229</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B11" s="33" t="s">
+        <v>246</v>
+      </c>
+      <c r="C11" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" s="34" customFormat="1">
+      <c r="A12" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>247</v>
+      </c>
+      <c r="C12" s="33" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" s="34" customFormat="1">
+      <c r="A13" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C13" s="33" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24">
+      <c r="A14" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C10" s="33" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33" t="s">
-        <v>230</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>247</v>
-      </c>
-      <c r="C11" s="33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C12" s="33" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24" s="34" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="33" t="s">
-        <v>238</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>249</v>
-      </c>
-      <c r="C13" s="33" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="C14" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24">
+      <c r="A15" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -2699,14 +2665,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="3" max="3" width="17" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2716,17 +2682,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8">
       <c r="B5" s="26" t="s">
         <v>0</v>
       </c>
@@ -2749,15 +2715,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="7" customFormat="1">
       <c r="B6" s="16">
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>34</v>
@@ -2768,18 +2734,18 @@
       <c r="G6" s="16"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8">
       <c r="B7" s="16">
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E7" s="16" t="s">
         <v>93</v>
-      </c>
-      <c r="D7" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>94</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -2787,18 +2753,18 @@
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="7" customFormat="1">
       <c r="B8" s="16">
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="D8" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="D8" s="28" t="s">
-        <v>98</v>
-      </c>
       <c r="E8" s="16" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="F8" s="16">
         <v>14</v>
@@ -2806,18 +2772,18 @@
       <c r="G8" s="16"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="7" customFormat="1">
       <c r="B9" s="16">
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="28" t="s">
-        <v>102</v>
-      </c>
       <c r="E9" s="16" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -2825,15 +2791,15 @@
       <c r="G9" s="16"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8">
       <c r="B10" s="16">
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="D10" s="28" t="s">
         <v>103</v>
-      </c>
-      <c r="D10" s="28" t="s">
-        <v>104</v>
       </c>
       <c r="E10" s="16" t="s">
         <v>34</v>
@@ -2844,73 +2810,73 @@
       <c r="G10" s="16"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="7" customFormat="1">
       <c r="B11" s="16">
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D11" s="28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8">
       <c r="B12" s="16">
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D12" s="28" t="s">
         <v>106</v>
       </c>
-      <c r="D12" s="28" t="s">
-        <v>107</v>
-      </c>
       <c r="E12" s="16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8">
       <c r="B13" s="16">
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="30" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="B14" s="16">
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
+        <v>252</v>
+      </c>
+      <c r="D14" s="28" t="s">
         <v>253</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="E14" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="E14" s="16" t="s">
-        <v>255</v>
       </c>
       <c r="F14" s="16">
         <v>3</v>
@@ -2918,18 +2884,18 @@
       <c r="G14" s="16"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8">
       <c r="B15" s="16">
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
+        <v>256</v>
+      </c>
+      <c r="D15" s="28" t="s">
+        <v>255</v>
+      </c>
+      <c r="E15" s="16" t="s">
         <v>257</v>
-      </c>
-      <c r="D15" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="E15" s="16" t="s">
-        <v>258</v>
       </c>
       <c r="F15" s="16">
         <v>8</v>
@@ -2945,417 +2911,417 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="B3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B9" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="31" t="s">
         <v>222</v>
       </c>
-      <c r="B1" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="B3" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="B4" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="B5" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B6" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="B7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="B8" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="B9" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="B10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="31" t="s">
+      <c r="B12" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="B11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
-        <v>223</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="31" t="s">
+    <row r="15" spans="1:2">
+      <c r="A15" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="31" t="s">
+    <row r="16" spans="1:2">
+      <c r="A16" s="31" t="s">
         <v>137</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="31" t="s">
+    <row r="17" spans="1:2">
+      <c r="A17" s="31" t="s">
         <v>138</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="31" t="s">
+    <row r="18" spans="1:2">
+      <c r="A18" s="31" t="s">
         <v>139</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="31" t="s">
+    <row r="19" spans="1:2">
+      <c r="A19" s="31" t="s">
         <v>140</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
+    <row r="20" spans="1:2">
+      <c r="A20" s="31" t="s">
         <v>141</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="31" t="s">
+    <row r="21" spans="1:2">
+      <c r="A21" s="31" t="s">
         <v>142</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+    <row r="22" spans="1:2">
+      <c r="A22" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+    <row r="23" spans="1:2">
+      <c r="A23" s="31" t="s">
         <v>144</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
+    <row r="24" spans="1:2">
+      <c r="A24" s="31" t="s">
         <v>145</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+    <row r="25" spans="1:2">
+      <c r="A25" s="31" t="s">
         <v>146</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
+    <row r="26" spans="1:2">
+      <c r="A26" s="31" t="s">
         <v>147</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
+    <row r="27" spans="1:2">
+      <c r="A27" s="31" t="s">
         <v>148</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+    <row r="28" spans="1:2">
+      <c r="A28" s="31" t="s">
         <v>149</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
+    <row r="29" spans="1:2">
+      <c r="A29" s="31" t="s">
         <v>150</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="31" t="s">
+    <row r="30" spans="1:2">
+      <c r="A30" s="31" t="s">
         <v>151</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="31" t="s">
+    <row r="31" spans="1:2">
+      <c r="A31" s="31" t="s">
         <v>152</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="31" t="s">
+    <row r="32" spans="1:2">
+      <c r="A32" s="31" t="s">
         <v>153</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+    <row r="33" spans="1:2">
+      <c r="A33" s="31" t="s">
         <v>154</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
+    <row r="34" spans="1:2">
+      <c r="A34" s="31" t="s">
         <v>155</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="31" t="s">
+    <row r="35" spans="1:2">
+      <c r="A35" s="31" t="s">
         <v>156</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="31" t="s">
+    <row r="36" spans="1:2">
+      <c r="A36" s="31" t="s">
         <v>157</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="31" t="s">
+    <row r="37" spans="1:2">
+      <c r="A37" s="31" t="s">
         <v>158</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="31" t="s">
+    <row r="38" spans="1:2">
+      <c r="A38" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="31" t="s">
+    <row r="39" spans="1:2">
+      <c r="A39" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
+    <row r="40" spans="1:2">
+      <c r="A40" s="31" t="s">
         <v>161</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
+    <row r="41" spans="1:2">
+      <c r="A41" s="31" t="s">
         <v>162</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+    <row r="42" spans="1:2">
+      <c r="A42" s="31" t="s">
         <v>163</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
+    <row r="43" spans="1:2">
+      <c r="A43" s="31" t="s">
         <v>164</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A43" s="31" t="s">
+    <row r="44" spans="1:2">
+      <c r="A44" s="31" t="s">
         <v>165</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="31" t="s">
+    <row r="45" spans="1:2">
+      <c r="A45" s="31" t="s">
         <v>166</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A45" s="31" t="s">
+    <row r="46" spans="1:2">
+      <c r="A46" s="31" t="s">
         <v>167</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A46" s="31" t="s">
+    <row r="47" spans="1:2">
+      <c r="A47" s="31" t="s">
         <v>168</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B48" t="s">
         <v>218</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="31" t="s">
-        <v>169</v>
-      </c>
-      <c r="B47" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+    <row r="49" spans="1:2">
+      <c r="A49" s="31" t="s">
         <v>170</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="31" t="s">
+    <row r="50" spans="1:2">
+      <c r="A50" s="31" t="s">
         <v>171</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>220</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="31" t="s">
-        <v>172</v>
-      </c>
-      <c r="B50" t="s">
-        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1053,10 +1053,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>jsonformat</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">CdCode.ProcStsCode
 0:未檢核
@@ -1114,6 +1110,10 @@
 4:15日(員工扣薪)
 5:非15日(員工扣薪)
 6.上傳批號後兩碼(匯款轉帳、支票兌現)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>tita暫存</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1873,11 +1873,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10"/>
@@ -2114,7 +2114,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4">
@@ -2228,7 +2228,7 @@
         <v>1</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
@@ -2288,7 +2288,7 @@
         <v>2000</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="35" spans="1:7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1104,16 +1104,16 @@
     <t>Index5</t>
   </si>
   <si>
+    <t>tita暫存</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
     <t>1:ACH新光(銀行扣款)
 2:ACH他行(銀行扣款)
 3:郵局(員工扣薪)
 4:15日(員工扣薪)
 5:非15日(員工扣薪)
-6.上傳批號後兩碼(匯款轉帳、支票兌現)</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>tita暫存</t>
+6.上傳批號後兩碼(匯款轉帳、支票兌現、其他還款來源)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
@@ -1749,8 +1749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1761,7 +1761,7 @@
     <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46.6640625" style="16" customWidth="1"/>
+    <col min="7" max="7" width="64.6640625" style="16" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
@@ -2288,7 +2288,7 @@
         <v>2000</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2362,7 +2362,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:7">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="281">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -93,9 +93,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>會計日期</t>
-  </si>
-  <si>
     <t>整批批號</t>
   </si>
   <si>
@@ -309,10 +306,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>findL4200BFirst</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateDate</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -825,10 +818,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>BatchNo DESC ,DetailSeq DESC</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>MediaSeq</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -863,9 +852,6 @@
     <t xml:space="preserve">AcDate &gt;= ,AND AcDate &lt;= ,AND CustNo &gt;= ,AND CustNo &lt;= ,AND RepayCode &gt;= ,AND RepayCode &lt;= ,AND ProcStsCode ^i </t>
   </si>
   <si>
-    <t>AcDate = ,AND FileName = ,AND CustNo = ,AND RepayAmt = ,AND ProcStsCode ^i</t>
-  </si>
-  <si>
     <t>AcDate = ,AND BatchNo = ,AND CustNo = ,AND ProcStsCode ^i</t>
   </si>
   <si>
@@ -907,10 +893,6 @@
   </si>
   <si>
     <t>扣款銀行</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR2</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
@@ -1031,21 +1013,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.BatchRepayCode
-01:匯款轉帳
-02:銀行扣款
-03:員工扣款
-04:支票兌現
-05:法院扣薪
-06:理賠金
-07:代收款-債權協商
-09:其他
-11:匯款轉帳預先作業
-90:暫收抵繳
-99:暫收沖正</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>OtherNote</t>
   </si>
   <si>
@@ -1115,6 +1082,53 @@
 5:非15日(員工扣薪)
 6.上傳批號後兩碼(匯款轉帳、支票兌現、其他還款來源)</t>
     <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料會計日(7)-批號(6)-明細序號(6)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>大額手工增入帳與匯款轉帳連結序號</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>RepayCode11Chain</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日期</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.BatchRepayCode
+01:匯款轉帳
+02:銀行扣款
+03:員工扣款
+04:支票兌現
+05:法院扣薪
+06:理賠金
+07:代收款-債權協商
+09:其他
+11:匯款轉帳預先作業
+90:暫收抵繳
+99:暫收沖正</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>會計日</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>findL4200BFirst</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate = ,AND FileName = ,AND CustNo = ,AND RepayAmt = ,AND ProcStsCode ^i</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>AcDate DESC, BatchNo DESC ,DetailSeq DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1749,8 +1763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1771,10 +1785,10 @@
       </c>
       <c r="B1" s="37"/>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1784,7 +1798,7 @@
       <c r="A2" s="35"/>
       <c r="B2" s="37"/>
       <c r="C2" s="8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1799,7 +1813,7 @@
       </c>
       <c r="B3" s="38"/>
       <c r="C3" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1825,7 +1839,7 @@
       </c>
       <c r="B5" s="38"/>
       <c r="C5" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" s="13"/>
       <c r="E5" s="10"/>
@@ -1838,7 +1852,7 @@
       </c>
       <c r="B6" s="37"/>
       <c r="C6" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="13"/>
       <c r="E6" s="10"/>
@@ -1851,7 +1865,7 @@
       </c>
       <c r="B7" s="36"/>
       <c r="C7" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D7" s="13"/>
       <c r="E7" s="10"/>
@@ -1860,11 +1874,11 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B8" s="36"/>
       <c r="C8" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="13"/>
       <c r="E8" s="10"/>
@@ -1873,11 +1887,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="35" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B9" s="36"/>
       <c r="C9" s="3" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="D9" s="13"/>
       <c r="E9" s="10"/>
@@ -1912,37 +1926,39 @@
         <v>1</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>19</v>
+        <v>275</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" s="23">
         <v>8</v>
       </c>
-      <c r="G11" s="24"/>
+      <c r="G11" s="24" t="s">
+        <v>277</v>
+      </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="19">
         <v>2</v>
       </c>
       <c r="B12" s="21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E12" s="23">
         <v>6</v>
       </c>
       <c r="G12" s="24" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1950,19 +1966,19 @@
         <v>3</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D13" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E13" s="23">
         <v>6</v>
       </c>
       <c r="G13" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="194.4">
@@ -1970,19 +1986,19 @@
         <v>4</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="23">
         <v>2</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1990,13 +2006,13 @@
         <v>5</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15" s="23">
         <v>50</v>
@@ -2008,13 +2024,13 @@
         <v>6</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E16" s="23">
         <v>8</v>
@@ -2026,13 +2042,13 @@
         <v>7</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E17" s="23">
         <v>7</v>
@@ -2047,10 +2063,10 @@
         <v>18</v>
       </c>
       <c r="C18" s="22" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D18" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E18" s="23">
         <v>3</v>
@@ -2062,19 +2078,19 @@
         <v>9</v>
       </c>
       <c r="B19" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C19" s="21" t="s">
         <v>68</v>
       </c>
-      <c r="C19" s="21" t="s">
-        <v>69</v>
-      </c>
       <c r="D19" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E19" s="23">
         <v>30</v>
       </c>
       <c r="G19" s="24" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="178.2">
@@ -2082,19 +2098,19 @@
         <v>10</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C20" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D20" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E20" s="23">
         <v>2</v>
       </c>
       <c r="G20" s="24" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="97.2">
@@ -2102,19 +2118,19 @@
         <v>11</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C21" s="22" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="D21" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E21" s="23">
         <v>3</v>
       </c>
       <c r="G21" s="24" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4">
@@ -2122,19 +2138,19 @@
         <v>12</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="21" t="s">
-        <v>44</v>
-      </c>
       <c r="D22" s="22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="23">
         <v>18</v>
       </c>
       <c r="G22" s="21" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2142,19 +2158,19 @@
         <v>13</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D23" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E23" s="19">
         <v>14</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2162,13 +2178,13 @@
         <v>14</v>
       </c>
       <c r="B24" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C24" s="22" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D24" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E24" s="19">
         <v>14</v>
@@ -2180,13 +2196,13 @@
         <v>15</v>
       </c>
       <c r="B25" s="20" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D25" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E25" s="19">
         <v>14</v>
@@ -2198,13 +2214,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E26" s="19">
         <v>14</v>
@@ -2216,19 +2232,19 @@
         <v>17</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="C27" s="21" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D27" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E27" s="23">
         <v>1</v>
       </c>
       <c r="G27" s="24" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
@@ -2236,19 +2252,19 @@
         <v>18</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E28" s="23">
         <v>5</v>
       </c>
       <c r="G28" s="32" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="29" spans="1:7" ht="32.4">
@@ -2256,19 +2272,19 @@
         <v>19</v>
       </c>
       <c r="B29" s="20" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C29" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D29" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E29" s="23">
         <v>2000</v>
       </c>
       <c r="G29" s="24" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2276,19 +2292,19 @@
         <v>20</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="C30" s="21" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D30" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E30" s="23">
         <v>2000</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2296,13 +2312,13 @@
         <v>21</v>
       </c>
       <c r="B31" s="20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C31" s="21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D31" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E31" s="19">
         <v>6</v>
@@ -2314,13 +2330,13 @@
         <v>22</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C32" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D32" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="19">
         <v>8</v>
@@ -2332,13 +2348,13 @@
         <v>23</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C33" s="21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D33" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="23">
         <v>8</v>
@@ -2350,19 +2366,19 @@
         <v>24</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34" s="21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D34" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E34" s="23">
         <v>2</v>
       </c>
       <c r="G34" s="24" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2370,13 +2386,13 @@
         <v>25</v>
       </c>
       <c r="B35" s="20" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C35" s="21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D35" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E35" s="23">
         <v>6</v>
@@ -2388,13 +2404,13 @@
         <v>26</v>
       </c>
       <c r="B36" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="C36" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="D36" s="25" t="s">
         <v>77</v>
-      </c>
-      <c r="C36" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>79</v>
       </c>
       <c r="E36" s="23"/>
       <c r="G36" s="24"/>
@@ -2404,13 +2420,13 @@
         <v>27</v>
       </c>
       <c r="B37" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="D37" s="25" t="s">
         <v>80</v>
-      </c>
-      <c r="C37" s="21" t="s">
-        <v>81</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>82</v>
       </c>
       <c r="E37" s="23">
         <v>6</v>
@@ -2422,13 +2438,13 @@
         <v>28</v>
       </c>
       <c r="B38" s="25" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C38" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D38" s="25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E38" s="23"/>
       <c r="G38" s="24"/>
@@ -2438,13 +2454,13 @@
         <v>29</v>
       </c>
       <c r="B39" s="25" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C39" s="21" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D39" s="25" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E39" s="23">
         <v>6</v>
@@ -2476,9 +2492,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2502,159 +2518,159 @@
     </row>
     <row r="2" spans="1:24">
       <c r="A2" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" spans="1:24">
       <c r="A3" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4" spans="1:24">
       <c r="A4" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="X4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:24">
       <c r="A5" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:24">
       <c r="A6" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
-        <v>76</v>
+        <v>278</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:24" s="34" customFormat="1">
       <c r="A8" s="33" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B8" s="33" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="C8" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9" spans="1:24" s="34" customFormat="1">
       <c r="A9" s="33" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B9" s="33" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="C9" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:24" s="34" customFormat="1">
       <c r="A10" s="33" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B10" s="33" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="C10" s="33" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:24" s="34" customFormat="1">
       <c r="A11" s="33" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B11" s="33" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="C11" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="12" spans="1:24" s="34" customFormat="1">
       <c r="A12" s="33" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B12" s="33" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C12" s="33" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:24" s="34" customFormat="1">
       <c r="A13" s="33" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="B13" s="33" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C13" s="33" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:24">
       <c r="A14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="15" spans="1:24">
       <c r="A15" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -2666,15 +2682,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
     <col min="6" max="6" width="15.109375" customWidth="1"/>
@@ -2684,12 +2700,12 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -2720,13 +2736,13 @@
         <v>1</v>
       </c>
       <c r="C6" s="28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F6" s="16">
         <v>100</v>
@@ -2739,13 +2755,13 @@
         <v>2</v>
       </c>
       <c r="C7" s="28" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D7" s="28" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F7" s="16">
         <v>100</v>
@@ -2758,13 +2774,13 @@
         <v>3</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D8" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="E8" s="16" t="s">
         <v>97</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>99</v>
       </c>
       <c r="F8" s="16">
         <v>14</v>
@@ -2777,13 +2793,13 @@
         <v>4</v>
       </c>
       <c r="C9" s="28" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F9" s="16">
         <v>20</v>
@@ -2796,13 +2812,13 @@
         <v>5</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D10" s="28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F10" s="16">
         <v>20</v>
@@ -2815,13 +2831,13 @@
         <v>6</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D11" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>107</v>
-      </c>
-      <c r="E11" s="16" t="s">
-        <v>109</v>
       </c>
       <c r="F11" s="16"/>
       <c r="G11" s="16"/>
@@ -2832,13 +2848,13 @@
         <v>7</v>
       </c>
       <c r="C12" s="28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D12" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="E12" s="16" t="s">
-        <v>108</v>
       </c>
       <c r="F12" s="16"/>
       <c r="G12" s="16"/>
@@ -2849,20 +2865,20 @@
         <v>8</v>
       </c>
       <c r="C13" s="28" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D13" s="28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F13" s="16">
         <v>100</v>
       </c>
       <c r="G13" s="16"/>
       <c r="H13" s="30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -2870,13 +2886,13 @@
         <v>9</v>
       </c>
       <c r="C14" s="28" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D14" s="28" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>254</v>
+        <v>51</v>
       </c>
       <c r="F14" s="16">
         <v>3</v>
@@ -2889,19 +2905,40 @@
         <v>10</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="D15" s="28" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F15" s="16">
         <v>8</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="30"/>
+    </row>
+    <row r="16" spans="1:8" ht="32.4">
+      <c r="B16" s="16">
+        <v>11</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>274</v>
+      </c>
+      <c r="D16" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="16">
+        <v>21</v>
+      </c>
+      <c r="G16" s="16"/>
+      <c r="H16" s="30" t="s">
+        <v>272</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>
@@ -2926,402 +2963,402 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="31" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="31" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="31" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="31" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="31" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="31" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="31" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="31" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="31" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="31" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B10" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="31" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="31" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="31" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="31" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="31" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="31" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="31" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="31" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B18" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="31" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="31" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="31" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="31" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B23" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B24" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B25" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="31" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B26" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="31" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="31" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="31" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B30" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="31" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B31" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="31" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="31" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B33" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="31" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B34" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="31" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B35" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="31" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B36" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="31" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B37" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B38" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="31" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B39" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="31" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B40" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="31" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="31" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B42" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B43" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="31" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="31" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B45" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="31" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B46" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="31" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B47" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="31" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B48" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="31" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B49" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="31" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A106408-D6E4-486A-9F9C-FB5004283D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9012" activeTab="1"/>
+    <workbookView minimized="1" xWindow="1390" yWindow="680" windowWidth="18150" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1134,7 +1135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="15">
     <font>
       <sz val="12"/>
@@ -1336,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1352,10 +1353,10 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1367,9 +1368,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1382,9 +1380,6 @@
     <xf numFmtId="49" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1424,9 +1419,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1435,12 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1457,8 +1443,8 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
-    <cellStyle name="一般 2 2" xfId="2"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
     <cellStyle name="超連結" xfId="3" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1550,6 +1536,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1585,6 +1588,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1760,30 +1780,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.77734375" style="18" customWidth="1"/>
-    <col min="4" max="4" width="17.77734375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.6640625" style="16" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="7"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.81640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.453125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.6328125" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="21.453125" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="37"/>
+      <c r="B1" s="32"/>
       <c r="C1" s="3" t="s">
         <v>39</v>
       </c>
@@ -1795,110 +1815,110 @@
       <c r="G1" s="6"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="35"/>
-      <c r="B2" s="37"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
         <v>112</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="38"/>
-      <c r="C3" s="12" t="s">
+      <c r="B3" s="33"/>
+      <c r="C3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
+      <c r="B4" s="31"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="12" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="32"/>
       <c r="C6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="36"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="35" t="s">
+      <c r="A8" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B8" s="36"/>
+      <c r="B8" s="31"/>
       <c r="C8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="35" t="s">
+      <c r="A9" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
         <v>268</v>
       </c>
-      <c r="D9" s="13"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1">
+      <c r="D9" s="12"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -1917,555 +1937,555 @@
       <c r="F10" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="19">
+      <c r="A11" s="17">
         <v>1</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="20" t="s">
+      <c r="C11" s="18" t="s">
         <v>275</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="21">
         <v>8</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="22" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="19">
+      <c r="A12" s="17">
         <v>2</v>
       </c>
-      <c r="B12" s="21" t="s">
+      <c r="B12" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="22" t="s">
+      <c r="D12" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="21">
         <v>6</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="22" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="19">
+      <c r="A13" s="17">
         <v>3</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="20" t="s">
+      <c r="C13" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="D13" s="25" t="s">
+      <c r="D13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="21">
         <v>6</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="22" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="194.4">
-      <c r="A14" s="19">
+    <row r="14" spans="1:7" ht="204">
+      <c r="A14" s="17">
         <v>4</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="20" t="s">
+      <c r="C14" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="25" t="s">
+      <c r="D14" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="21">
         <v>2</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="22" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="A15" s="19">
+      <c r="A15" s="17">
         <v>5</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="18" t="s">
         <v>230</v>
       </c>
-      <c r="C15" s="20" t="s">
+      <c r="C15" s="18" t="s">
         <v>231</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="21">
         <v>50</v>
       </c>
-      <c r="G15" s="24"/>
+      <c r="G15" s="22"/>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="19">
+      <c r="A16" s="17">
         <v>6</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C16" s="20" t="s">
+      <c r="C16" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="25" t="s">
+      <c r="D16" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="21">
         <v>8</v>
       </c>
-      <c r="G16" s="24"/>
+      <c r="G16" s="22"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="19">
+      <c r="A17" s="17">
         <v>7</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="C17" s="20" t="s">
+      <c r="C17" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="21">
         <v>7</v>
       </c>
-      <c r="G17" s="24"/>
+      <c r="G17" s="22"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="19">
+      <c r="A18" s="17">
         <v>8</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="22" t="s">
+      <c r="C18" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="D18" s="25" t="s">
+      <c r="D18" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="21">
         <v>3</v>
       </c>
-      <c r="G18" s="24"/>
+      <c r="G18" s="22"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="19">
+      <c r="A19" s="17">
         <v>9</v>
       </c>
-      <c r="B19" s="20" t="s">
+      <c r="B19" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="C19" s="21" t="s">
+      <c r="C19" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="21">
         <v>30</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="22" t="s">
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="178.2">
-      <c r="A20" s="19">
+    <row r="20" spans="1:7" ht="187">
+      <c r="A20" s="17">
         <v>10</v>
       </c>
-      <c r="B20" s="20" t="s">
+      <c r="B20" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C20" s="22" t="s">
+      <c r="C20" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="21">
         <v>2</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="22" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="97.2">
-      <c r="A21" s="19">
+    <row r="21" spans="1:7" ht="102">
+      <c r="A21" s="17">
         <v>11</v>
       </c>
-      <c r="B21" s="20" t="s">
+      <c r="B21" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="D21" s="22" t="s">
+      <c r="D21" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="21">
         <v>3</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="22" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="32.4">
-      <c r="A22" s="19">
+    <row r="22" spans="1:7" ht="34">
+      <c r="A22" s="17">
         <v>12</v>
       </c>
-      <c r="B22" s="20" t="s">
+      <c r="B22" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="C22" s="21" t="s">
+      <c r="C22" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E22" s="23">
+      <c r="E22" s="21">
         <v>18</v>
       </c>
-      <c r="G22" s="21" t="s">
+      <c r="G22" s="19" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7">
-      <c r="A23" s="19">
+      <c r="A23" s="17">
         <v>13</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="20" t="s">
         <v>222</v>
       </c>
-      <c r="D23" s="25" t="s">
+      <c r="D23" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="19">
+      <c r="E23" s="17">
         <v>14</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="22" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" s="19">
+      <c r="A24" s="17">
         <v>14</v>
       </c>
-      <c r="B24" s="20" t="s">
+      <c r="B24" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="20" t="s">
         <v>221</v>
       </c>
-      <c r="D24" s="25" t="s">
+      <c r="D24" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="19">
+      <c r="E24" s="17">
         <v>14</v>
       </c>
-      <c r="G24" s="24"/>
+      <c r="G24" s="22"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="19">
+      <c r="A25" s="17">
         <v>15</v>
       </c>
-      <c r="B25" s="20" t="s">
+      <c r="B25" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="C25" s="20" t="s">
+      <c r="C25" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="25" t="s">
+      <c r="D25" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E25" s="19">
+      <c r="E25" s="17">
         <v>14</v>
       </c>
-      <c r="G25" s="24"/>
+      <c r="G25" s="22"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" s="19">
+      <c r="A26" s="17">
         <v>16</v>
       </c>
-      <c r="B26" s="20" t="s">
+      <c r="B26" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C26" s="20" t="s">
+      <c r="C26" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="25" t="s">
+      <c r="D26" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="19">
+      <c r="E26" s="17">
         <v>14</v>
       </c>
-      <c r="G26" s="24"/>
-    </row>
-    <row r="27" spans="1:7" ht="183.6" customHeight="1">
-      <c r="A27" s="19">
+      <c r="G26" s="22"/>
+    </row>
+    <row r="27" spans="1:7" ht="183.65" customHeight="1">
+      <c r="A27" s="17">
         <v>17</v>
       </c>
-      <c r="B27" s="20" t="s">
+      <c r="B27" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="C27" s="21" t="s">
+      <c r="C27" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="21">
         <v>1</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="22" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="28" spans="1:7" ht="15" customHeight="1">
-      <c r="A28" s="19">
+      <c r="A28" s="17">
         <v>18</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="21" t="s">
+      <c r="C28" s="19" t="s">
         <v>111</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="21">
         <v>5</v>
       </c>
-      <c r="G28" s="32" t="s">
+      <c r="G28" s="29" t="s">
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="32.4">
-      <c r="A29" s="19">
+    <row r="29" spans="1:7" ht="34">
+      <c r="A29" s="17">
         <v>19</v>
       </c>
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="D29" s="22" t="s">
+      <c r="D29" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="21">
         <v>2000</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="22" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="30" spans="1:7">
-      <c r="A30" s="19">
+      <c r="A30" s="17">
         <v>20</v>
       </c>
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="18" t="s">
         <v>264</v>
       </c>
-      <c r="C30" s="21" t="s">
+      <c r="C30" s="19" t="s">
         <v>265</v>
       </c>
-      <c r="D30" s="22" t="s">
+      <c r="D30" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="21">
         <v>2000</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="22" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:7">
-      <c r="A31" s="19">
+      <c r="A31" s="17">
         <v>21</v>
       </c>
-      <c r="B31" s="20" t="s">
+      <c r="B31" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C31" s="21" t="s">
+      <c r="C31" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E31" s="19">
+      <c r="E31" s="17">
         <v>6</v>
       </c>
-      <c r="G31" s="24"/>
+      <c r="G31" s="22"/>
     </row>
     <row r="32" spans="1:7">
-      <c r="A32" s="19">
+      <c r="A32" s="17">
         <v>22</v>
       </c>
-      <c r="B32" s="20" t="s">
+      <c r="B32" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="C32" s="21" t="s">
+      <c r="C32" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="22" t="s">
+      <c r="D32" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E32" s="19">
+      <c r="E32" s="17">
         <v>8</v>
       </c>
-      <c r="G32" s="24"/>
+      <c r="G32" s="22"/>
     </row>
     <row r="33" spans="1:7">
-      <c r="A33" s="19">
+      <c r="A33" s="17">
         <v>23</v>
       </c>
-      <c r="B33" s="20" t="s">
+      <c r="B33" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="21" t="s">
+      <c r="C33" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="21">
         <v>8</v>
       </c>
-      <c r="G33" s="24"/>
-    </row>
-    <row r="34" spans="1:7" ht="97.2">
-      <c r="A34" s="19">
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" ht="102">
+      <c r="A34" s="17">
         <v>24</v>
       </c>
-      <c r="B34" s="20" t="s">
+      <c r="B34" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C34" s="21" t="s">
+      <c r="C34" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="D34" s="22" t="s">
+      <c r="D34" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="21">
         <v>2</v>
       </c>
-      <c r="G34" s="24" t="s">
+      <c r="G34" s="22" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:7">
-      <c r="A35" s="19">
+      <c r="A35" s="17">
         <v>25</v>
       </c>
-      <c r="B35" s="20" t="s">
+      <c r="B35" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="D35" s="22" t="s">
+      <c r="D35" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="21">
         <v>6</v>
       </c>
-      <c r="G35" s="24"/>
+      <c r="G35" s="22"/>
     </row>
     <row r="36" spans="1:7">
-      <c r="A36" s="19">
+      <c r="A36" s="17">
         <v>26</v>
       </c>
-      <c r="B36" s="25" t="s">
+      <c r="B36" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="C36" s="21" t="s">
+      <c r="C36" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E36" s="23"/>
-      <c r="G36" s="24"/>
+      <c r="E36" s="21"/>
+      <c r="G36" s="22"/>
     </row>
     <row r="37" spans="1:7">
-      <c r="A37" s="19">
+      <c r="A37" s="17">
         <v>27</v>
       </c>
-      <c r="B37" s="25" t="s">
+      <c r="B37" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="21" t="s">
+      <c r="C37" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="D37" s="25" t="s">
+      <c r="D37" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="21">
         <v>6</v>
       </c>
-      <c r="G37" s="24"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7">
-      <c r="A38" s="19">
+      <c r="A38" s="17">
         <v>28</v>
       </c>
-      <c r="B38" s="25" t="s">
+      <c r="B38" s="23" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="21" t="s">
+      <c r="C38" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="25" t="s">
+      <c r="D38" s="23" t="s">
         <v>77</v>
       </c>
-      <c r="E38" s="23"/>
-      <c r="G38" s="24"/>
+      <c r="E38" s="21"/>
+      <c r="G38" s="22"/>
     </row>
     <row r="39" spans="1:7">
-      <c r="A39" s="19">
+      <c r="A39" s="17">
         <v>29</v>
       </c>
-      <c r="B39" s="25" t="s">
+      <c r="B39" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="21" t="s">
+      <c r="C39" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="D39" s="25" t="s">
+      <c r="D39" s="23" t="s">
         <v>80</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="21">
         <v>6</v>
       </c>
-      <c r="G39" s="24"/>
+      <c r="G39" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="9">
@@ -2481,7 +2501,7 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="G28" location="ProcCode!A1" display="ProcCode!A1"/>
+    <hyperlink ref="G28" location="ProcCode!A1" display="ProcCode!A1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2489,19 +2509,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="104.1796875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2585,69 +2605,69 @@
         <v>280</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="34" customFormat="1">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:24">
+      <c r="A8" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B8" s="33" t="s">
+      <c r="B8" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C8" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:24" s="34" customFormat="1">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:24">
+      <c r="A9" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B9" s="33" t="s">
+      <c r="B9" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="C9" s="33" t="s">
+      <c r="C9" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="10" spans="1:24" s="34" customFormat="1">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:24">
+      <c r="A10" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C10" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="11" spans="1:24" s="34" customFormat="1">
-      <c r="A11" s="33" t="s">
+    <row r="11" spans="1:24">
+      <c r="A11" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B11" s="33" t="s">
+      <c r="B11" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="C11" s="33" t="s">
+      <c r="C11" s="1" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="12" spans="1:24" s="34" customFormat="1">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:24">
+      <c r="A12" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="B12" s="33" t="s">
+      <c r="B12" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C12" s="33" t="s">
+      <c r="C12" s="1" t="s">
         <v>256</v>
       </c>
     </row>
-    <row r="13" spans="1:24" s="34" customFormat="1">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:24">
+      <c r="A13" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C13" s="33" t="s">
+      <c r="C13" s="1" t="s">
         <v>228</v>
       </c>
     </row>
@@ -2681,25 +2701,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
-    <col min="4" max="4" width="21.44140625" customWidth="1"/>
+    <col min="3" max="3" width="21.36328125" customWidth="1"/>
+    <col min="4" max="4" width="21.453125" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
+    <col min="6" max="6" width="15.08984375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="40.109375" customWidth="1"/>
+    <col min="8" max="8" width="40.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="29" t="s">
+      <c r="A1" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2709,234 +2729,234 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="26" t="s">
+      <c r="F5" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="27" t="s">
+      <c r="H5" s="25" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="7" customFormat="1">
-      <c r="B6" s="16">
+      <c r="B6" s="14">
         <v>1</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F6" s="16">
+      <c r="F6" s="14">
         <v>100</v>
       </c>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="B7" s="16">
+      <c r="B7" s="14">
         <v>2</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="26" t="s">
         <v>90</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F7" s="16">
+      <c r="F7" s="14">
         <v>100</v>
       </c>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
     </row>
     <row r="8" spans="1:8" s="7" customFormat="1">
-      <c r="B8" s="16">
+      <c r="B8" s="14">
         <v>3</v>
       </c>
-      <c r="C8" s="28" t="s">
+      <c r="C8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>95</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="14">
         <v>14</v>
       </c>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
     </row>
     <row r="9" spans="1:8" s="7" customFormat="1">
-      <c r="B9" s="16">
+      <c r="B9" s="14">
         <v>4</v>
       </c>
-      <c r="C9" s="28" t="s">
+      <c r="C9" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="F9" s="16">
+      <c r="F9" s="14">
         <v>20</v>
       </c>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="B10" s="16">
+      <c r="B10" s="14">
         <v>5</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="26" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="F10" s="16">
+      <c r="F10" s="14">
         <v>20</v>
       </c>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="1:8" s="7" customFormat="1">
-      <c r="B11" s="16">
+      <c r="B11" s="14">
         <v>6</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="26" t="s">
         <v>102</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>105</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="B12" s="16">
+      <c r="B12" s="14">
         <v>7</v>
       </c>
-      <c r="C12" s="28" t="s">
+      <c r="C12" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>104</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="B13" s="16">
+      <c r="B13" s="14">
         <v>8</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="26" t="s">
         <v>109</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="F13" s="16">
+      <c r="F13" s="14">
         <v>100</v>
       </c>
-      <c r="G13" s="16"/>
-      <c r="H13" s="30" t="s">
+      <c r="G13" s="14"/>
+      <c r="H13" s="27" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:8">
-      <c r="B14" s="16">
+      <c r="B14" s="14">
         <v>9</v>
       </c>
-      <c r="C14" s="28" t="s">
+      <c r="C14" s="26" t="s">
         <v>248</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F14" s="16">
+      <c r="F14" s="14">
         <v>3</v>
       </c>
-      <c r="G14" s="16"/>
-      <c r="H14" s="16"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="B15" s="16">
+      <c r="B15" s="14">
         <v>10</v>
       </c>
-      <c r="C15" s="28" t="s">
+      <c r="C15" s="26" t="s">
         <v>251</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="16" t="s">
+      <c r="E15" s="14" t="s">
         <v>252</v>
       </c>
-      <c r="F15" s="16">
+      <c r="F15" s="14">
         <v>8</v>
       </c>
-      <c r="G15" s="16"/>
-      <c r="H15" s="30"/>
-    </row>
-    <row r="16" spans="1:8" ht="32.4">
-      <c r="B16" s="16">
+      <c r="G15" s="14"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" ht="34">
+      <c r="B16" s="14">
         <v>11</v>
       </c>
-      <c r="C16" s="28" t="s">
+      <c r="C16" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>273</v>
       </c>
-      <c r="E16" s="16" t="s">
+      <c r="E16" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="16">
+      <c r="F16" s="14">
         <v>21</v>
       </c>
-      <c r="G16" s="16"/>
-      <c r="H16" s="30" t="s">
+      <c r="G16" s="14"/>
+      <c r="H16" s="27" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2948,21 +2968,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="17"/>
   <cols>
-    <col min="1" max="1" width="13.109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="28" t="s">
         <v>219</v>
       </c>
       <c r="B1" t="s">
@@ -2970,7 +2990,7 @@
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B2" t="s">
@@ -2978,7 +2998,7 @@
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="28" t="s">
         <v>123</v>
       </c>
       <c r="B3" t="s">
@@ -2986,7 +3006,7 @@
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="28" t="s">
         <v>124</v>
       </c>
       <c r="B4" t="s">
@@ -2994,7 +3014,7 @@
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>125</v>
       </c>
       <c r="B5" t="s">
@@ -3002,7 +3022,7 @@
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B6" t="s">
@@ -3010,7 +3030,7 @@
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="28" t="s">
         <v>127</v>
       </c>
       <c r="B7" t="s">
@@ -3018,7 +3038,7 @@
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="28" t="s">
         <v>128</v>
       </c>
       <c r="B8" t="s">
@@ -3026,7 +3046,7 @@
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="31" t="s">
+      <c r="A9" s="28" t="s">
         <v>129</v>
       </c>
       <c r="B9" t="s">
@@ -3034,7 +3054,7 @@
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="28" t="s">
         <v>130</v>
       </c>
       <c r="B10" t="s">
@@ -3042,7 +3062,7 @@
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="28" t="s">
         <v>131</v>
       </c>
       <c r="B11" t="s">
@@ -3050,7 +3070,7 @@
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="28" t="s">
         <v>220</v>
       </c>
       <c r="B12" t="s">
@@ -3058,7 +3078,7 @@
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="31" t="s">
+      <c r="A13" s="28" t="s">
         <v>132</v>
       </c>
       <c r="B13" t="s">
@@ -3066,7 +3086,7 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="31" t="s">
+      <c r="A14" s="28" t="s">
         <v>133</v>
       </c>
       <c r="B14" t="s">
@@ -3074,7 +3094,7 @@
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="31" t="s">
+      <c r="A15" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B15" t="s">
@@ -3082,7 +3102,7 @@
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="28" t="s">
         <v>135</v>
       </c>
       <c r="B16" t="s">
@@ -3090,7 +3110,7 @@
       </c>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="31" t="s">
+      <c r="A17" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B17" t="s">
@@ -3098,7 +3118,7 @@
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="28" t="s">
         <v>137</v>
       </c>
       <c r="B18" t="s">
@@ -3106,7 +3126,7 @@
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B19" t="s">
@@ -3114,7 +3134,7 @@
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="31" t="s">
+      <c r="A20" s="28" t="s">
         <v>139</v>
       </c>
       <c r="B20" t="s">
@@ -3122,7 +3142,7 @@
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="31" t="s">
+      <c r="A21" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B21" t="s">
@@ -3130,7 +3150,7 @@
       </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="28" t="s">
         <v>141</v>
       </c>
       <c r="B22" t="s">
@@ -3138,7 +3158,7 @@
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="31" t="s">
+      <c r="A23" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B23" t="s">
@@ -3146,7 +3166,7 @@
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="28" t="s">
         <v>143</v>
       </c>
       <c r="B24" t="s">
@@ -3154,7 +3174,7 @@
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="31" t="s">
+      <c r="A25" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B25" t="s">
@@ -3162,7 +3182,7 @@
       </c>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="31" t="s">
+      <c r="A26" s="28" t="s">
         <v>145</v>
       </c>
       <c r="B26" t="s">
@@ -3170,7 +3190,7 @@
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B27" t="s">
@@ -3178,7 +3198,7 @@
       </c>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="28" t="s">
         <v>147</v>
       </c>
       <c r="B28" t="s">
@@ -3186,7 +3206,7 @@
       </c>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="31" t="s">
+      <c r="A29" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B29" t="s">
@@ -3194,7 +3214,7 @@
       </c>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="31" t="s">
+      <c r="A30" s="28" t="s">
         <v>149</v>
       </c>
       <c r="B30" t="s">
@@ -3202,7 +3222,7 @@
       </c>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="31" t="s">
+      <c r="A31" s="28" t="s">
         <v>150</v>
       </c>
       <c r="B31" t="s">
@@ -3210,7 +3230,7 @@
       </c>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="28" t="s">
         <v>151</v>
       </c>
       <c r="B32" t="s">
@@ -3218,7 +3238,7 @@
       </c>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="28" t="s">
         <v>152</v>
       </c>
       <c r="B33" t="s">
@@ -3226,7 +3246,7 @@
       </c>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="31" t="s">
+      <c r="A34" s="28" t="s">
         <v>153</v>
       </c>
       <c r="B34" t="s">
@@ -3234,7 +3254,7 @@
       </c>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="28" t="s">
         <v>154</v>
       </c>
       <c r="B35" t="s">
@@ -3242,7 +3262,7 @@
       </c>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="31" t="s">
+      <c r="A36" s="28" t="s">
         <v>155</v>
       </c>
       <c r="B36" t="s">
@@ -3250,7 +3270,7 @@
       </c>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="31" t="s">
+      <c r="A37" s="28" t="s">
         <v>156</v>
       </c>
       <c r="B37" t="s">
@@ -3258,7 +3278,7 @@
       </c>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="31" t="s">
+      <c r="A38" s="28" t="s">
         <v>157</v>
       </c>
       <c r="B38" t="s">
@@ -3266,7 +3286,7 @@
       </c>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="28" t="s">
         <v>158</v>
       </c>
       <c r="B39" t="s">
@@ -3274,7 +3294,7 @@
       </c>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="31" t="s">
+      <c r="A40" s="28" t="s">
         <v>159</v>
       </c>
       <c r="B40" t="s">
@@ -3282,7 +3302,7 @@
       </c>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="31" t="s">
+      <c r="A41" s="28" t="s">
         <v>160</v>
       </c>
       <c r="B41" t="s">
@@ -3290,7 +3310,7 @@
       </c>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="31" t="s">
+      <c r="A42" s="28" t="s">
         <v>161</v>
       </c>
       <c r="B42" t="s">
@@ -3298,7 +3318,7 @@
       </c>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="31" t="s">
+      <c r="A43" s="28" t="s">
         <v>162</v>
       </c>
       <c r="B43" t="s">
@@ -3306,7 +3326,7 @@
       </c>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="31" t="s">
+      <c r="A44" s="28" t="s">
         <v>163</v>
       </c>
       <c r="B44" t="s">
@@ -3314,7 +3334,7 @@
       </c>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="31" t="s">
+      <c r="A45" s="28" t="s">
         <v>164</v>
       </c>
       <c r="B45" t="s">
@@ -3322,7 +3342,7 @@
       </c>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="31" t="s">
+      <c r="A46" s="28" t="s">
         <v>165</v>
       </c>
       <c r="B46" t="s">
@@ -3330,7 +3350,7 @@
       </c>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="31" t="s">
+      <c r="A47" s="28" t="s">
         <v>166</v>
       </c>
       <c r="B47" t="s">
@@ -3338,7 +3358,7 @@
       </c>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="28" t="s">
         <v>167</v>
       </c>
       <c r="B48" t="s">
@@ -3346,7 +3366,7 @@
       </c>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="31" t="s">
+      <c r="A49" s="28" t="s">
         <v>168</v>
       </c>
       <c r="B49" t="s">
@@ -3354,7 +3374,7 @@
       </c>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="31" t="s">
+      <c r="A50" s="28" t="s">
         <v>169</v>
       </c>
       <c r="B50" t="s">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A106408-D6E4-486A-9F9C-FB5004283D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E79DE5-4F02-4503-8998-991B737724CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1390" yWindow="680" windowWidth="18150" windowHeight="8710" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="282">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -1129,6 +1129,10 @@
   </si>
   <si>
     <t>AcDate DESC, BatchNo DESC ,DetailSeq DESC</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>EntryDate ASC ,CustNo ASC ,FacmNo ASC ,RepayCode ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -1783,20 +1787,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.453125" defaultRowHeight="17"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
-    <col min="2" max="2" width="19.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.81640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.453125" style="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.81640625" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="64.6328125" style="14" customWidth="1"/>
-    <col min="8" max="16384" width="21.453125" style="7"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.77734375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17.77734375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="64.6640625" style="14" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -2001,7 +2005,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="204">
+    <row r="14" spans="1:7" ht="194.4">
       <c r="A14" s="17">
         <v>4</v>
       </c>
@@ -2113,7 +2117,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="187">
+    <row r="20" spans="1:7" ht="178.2">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -2133,7 +2137,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="102">
+    <row r="21" spans="1:7" ht="97.2">
       <c r="A21" s="17">
         <v>11</v>
       </c>
@@ -2153,7 +2157,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="34">
+    <row r="22" spans="1:7" ht="32.4">
       <c r="A22" s="17">
         <v>12</v>
       </c>
@@ -2247,7 +2251,7 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="183.65" customHeight="1">
+    <row r="27" spans="1:7" ht="183.6" customHeight="1">
       <c r="A27" s="17">
         <v>17</v>
       </c>
@@ -2287,7 +2291,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="34">
+    <row r="29" spans="1:7" ht="32.4">
       <c r="A29" s="17">
         <v>19</v>
       </c>
@@ -2381,7 +2385,7 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="102">
+    <row r="34" spans="1:7" ht="97.2">
       <c r="A34" s="17">
         <v>24</v>
       </c>
@@ -2512,16 +2516,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C22" sqref="C22"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="17.90625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="104.1796875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2544,7 +2548,7 @@
         <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>46</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -2708,14 +2712,14 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="3" max="3" width="21.36328125" customWidth="1"/>
-    <col min="4" max="4" width="21.453125" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="4" max="4" width="21.44140625" customWidth="1"/>
     <col min="5" max="5" width="18" customWidth="1"/>
-    <col min="6" max="6" width="15.08984375" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" customWidth="1"/>
     <col min="7" max="7" width="16" customWidth="1"/>
-    <col min="8" max="8" width="40.08984375" customWidth="1"/>
+    <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2939,7 +2943,7 @@
       <c r="G15" s="14"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="34">
+    <row r="16" spans="1:8" ht="32.4">
       <c r="B16" s="14">
         <v>11</v>
       </c>
@@ -2975,10 +2979,10 @@
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17"/>
+  <sheetFormatPr defaultRowHeight="16.2"/>
   <cols>
-    <col min="1" max="1" width="13.08984375" style="28" customWidth="1"/>
-    <col min="2" max="2" width="31.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" style="28" customWidth="1"/>
+    <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94E79DE5-4F02-4503-8998-991B737724CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E100AD6B-4E8C-4BD7-95F0-F30DA1733DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -1056,15 +1056,6 @@
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
-    <t>CdCode.ReconCode
-P01:銀行存款－郵局
-C01:暫收款－非核心運用
-A1~A7:  (帳務:P03:銀行存款－新光)
-TEM:員工扣薪15/非15
-TCK:支票</t>
-    <phoneticPr fontId="10" type="noConversion"/>
-  </si>
-  <si>
     <t>AcDate,TitaTlrNo,TitaTxtNo</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
@@ -1134,6 +1125,17 @@
   <si>
     <t>EntryDate ASC ,CustNo ASC ,FacmNo ASC ,RepayCode ASC</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>CdCode.ReconCode
+A1~A7:  (帳務:P03:銀行存款－新光)
+TEM:員工扣薪15/非15
+TCK:支票
+103:新光商銀(帳務 C01暫收款－非核心運用)
+006:合庫商銀(帳務 C01暫收款－非核心運用)
+812:台新銀行(帳務 C01暫收款－非核心運用)
+700:郵局(帳務 P01銀行存款－郵局)</t>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1465,9 +1467,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1505,9 +1507,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1540,26 +1542,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1592,26 +1577,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1787,8 +1755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1911,11 +1879,11 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="30" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5"/>
@@ -1953,7 +1921,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>45</v>
@@ -1962,7 +1930,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2022,7 +1990,7 @@
         <v>2</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2137,7 +2105,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="97.2">
+    <row r="21" spans="1:7" ht="129.6">
       <c r="A21" s="17">
         <v>11</v>
       </c>
@@ -2154,7 +2122,7 @@
         <v>3</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>267</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32.4">
@@ -2328,7 +2296,7 @@
         <v>2000</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2402,7 +2370,7 @@
         <v>2</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2516,7 +2484,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
@@ -2548,7 +2516,7 @@
         <v>262</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -2600,13 +2568,13 @@
     </row>
     <row r="7" spans="1:24">
       <c r="A7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="C7" s="1" t="s">
         <v>279</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -2948,10 +2916,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>51</v>
@@ -2961,7 +2929,7 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/BatxDetail.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E100AD6B-4E8C-4BD7-95F0-F30DA1733DC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B646E6A9-07F2-49B8-93BF-1C61A32991C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -312,10 +312,6 @@
   </si>
   <si>
     <t>建檔日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>CreateEmpNo</t>
@@ -1137,12 +1133,15 @@
 700:郵局(帳務 P01銀行存款－郵局)</t>
     <phoneticPr fontId="10" type="noConversion"/>
   </si>
+  <si>
+    <t>TIMESTAMP</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1755,11 +1754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="6" style="14" customWidth="1"/>
     <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
@@ -1771,7 +1770,7 @@
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>7</v>
       </c>
@@ -1786,11 +1785,11 @@
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="30"/>
       <c r="B2" s="32"/>
       <c r="C2" s="8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1799,7 +1798,7 @@
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>8</v>
       </c>
@@ -1814,7 +1813,7 @@
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="30" t="s">
         <v>10</v>
       </c>
@@ -1825,20 +1824,20 @@
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" s="12"/>
       <c r="E5" s="5"/>
       <c r="F5" s="10"/>
       <c r="G5" s="10"/>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
@@ -1851,7 +1850,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="10"/>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="30" t="s">
         <v>6</v>
       </c>
@@ -1864,7 +1863,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="30" t="s">
         <v>52</v>
       </c>
@@ -1877,20 +1876,20 @@
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B9" s="31"/>
       <c r="C9" s="3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D9" s="12"/>
       <c r="E9" s="5"/>
       <c r="F9" s="10"/>
       <c r="G9" s="10"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>0</v>
       </c>
@@ -1913,7 +1912,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
         <v>1</v>
       </c>
@@ -1921,7 +1920,7 @@
         <v>48</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>45</v>
@@ -1930,10 +1929,10 @@
         <v>8</v>
       </c>
       <c r="G11" s="22" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
         <v>2</v>
       </c>
@@ -1950,10 +1949,10 @@
         <v>6</v>
       </c>
       <c r="G12" s="22" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
         <v>3</v>
       </c>
@@ -1961,7 +1960,7 @@
         <v>61</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>28</v>
@@ -1973,7 +1972,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="194.4">
+    <row r="14" spans="1:7" ht="237.6" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
         <v>4</v>
       </c>
@@ -1990,18 +1989,18 @@
         <v>2</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
         <v>5</v>
       </c>
       <c r="B15" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="C15" s="18" t="s">
         <v>230</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>231</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>29</v>
@@ -2011,7 +2010,7 @@
       </c>
       <c r="G15" s="22"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A16" s="17">
         <v>6</v>
       </c>
@@ -2029,7 +2028,7 @@
       </c>
       <c r="G16" s="22"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A17" s="17">
         <v>7</v>
       </c>
@@ -2047,7 +2046,7 @@
       </c>
       <c r="G17" s="22"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A18" s="17">
         <v>8</v>
       </c>
@@ -2065,7 +2064,7 @@
       </c>
       <c r="G18" s="22"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A19" s="17">
         <v>9</v>
       </c>
@@ -2082,10 +2081,10 @@
         <v>30</v>
       </c>
       <c r="G19" s="22" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="178.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="217.8" x14ac:dyDescent="0.3">
       <c r="A20" s="17">
         <v>10</v>
       </c>
@@ -2102,10 +2101,10 @@
         <v>2</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="129.6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="158.4" x14ac:dyDescent="0.3">
       <c r="A21" s="17">
         <v>11</v>
       </c>
@@ -2113,7 +2112,7 @@
         <v>73</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D21" s="20" t="s">
         <v>40</v>
@@ -2122,10 +2121,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32.4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A22" s="17">
         <v>12</v>
       </c>
@@ -2142,10 +2141,10 @@
         <v>18</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
         <v>13</v>
       </c>
@@ -2153,7 +2152,7 @@
         <v>71</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>28</v>
@@ -2162,10 +2161,10 @@
         <v>14</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A24" s="17">
         <v>14</v>
       </c>
@@ -2173,7 +2172,7 @@
         <v>62</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>30</v>
@@ -2183,7 +2182,7 @@
       </c>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A25" s="17">
         <v>15</v>
       </c>
@@ -2201,7 +2200,7 @@
       </c>
       <c r="G25" s="22"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A26" s="17">
         <v>16</v>
       </c>
@@ -2219,15 +2218,15 @@
       </c>
       <c r="G26" s="22"/>
     </row>
-    <row r="27" spans="1:7" ht="183.6" customHeight="1">
+    <row r="27" spans="1:7" ht="183.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="17">
         <v>17</v>
       </c>
       <c r="B27" s="18" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C27" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D27" s="20" t="s">
         <v>29</v>
@@ -2236,10 +2235,10 @@
         <v>1</v>
       </c>
       <c r="G27" s="22" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="15" customHeight="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="17">
         <v>18</v>
       </c>
@@ -2247,7 +2246,7 @@
         <v>70</v>
       </c>
       <c r="C28" s="19" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D28" s="20" t="s">
         <v>51</v>
@@ -2256,10 +2255,10 @@
         <v>5</v>
       </c>
       <c r="G28" s="29" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" ht="32.4">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A29" s="17">
         <v>19</v>
       </c>
@@ -2276,18 +2275,18 @@
         <v>2000</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A30" s="17">
         <v>20</v>
       </c>
       <c r="B30" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C30" s="19" t="s">
         <v>264</v>
-      </c>
-      <c r="C30" s="19" t="s">
-        <v>265</v>
       </c>
       <c r="D30" s="20" t="s">
         <v>33</v>
@@ -2296,10 +2295,10 @@
         <v>2000</v>
       </c>
       <c r="G30" s="22" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A31" s="17">
         <v>21</v>
       </c>
@@ -2317,7 +2316,7 @@
       </c>
       <c r="G31" s="22"/>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A32" s="17">
         <v>22</v>
       </c>
@@ -2335,7 +2334,7 @@
       </c>
       <c r="G32" s="22"/>
     </row>
-    <row r="33" spans="1:7">
+    <row r="33" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A33" s="17">
         <v>23</v>
       </c>
@@ -2353,12 +2352,12 @@
       </c>
       <c r="G33" s="22"/>
     </row>
-    <row r="34" spans="1:7" ht="97.2">
+    <row r="34" spans="1:7" ht="118.8" x14ac:dyDescent="0.3">
       <c r="A34" s="17">
         <v>24</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C34" s="19" t="s">
         <v>36</v>
@@ -2370,15 +2369,15 @@
         <v>2</v>
       </c>
       <c r="G34" s="22" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A35" s="17">
         <v>25</v>
       </c>
       <c r="B35" s="18" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C35" s="19" t="s">
         <v>37</v>
@@ -2391,7 +2390,7 @@
       </c>
       <c r="G35" s="22"/>
     </row>
-    <row r="36" spans="1:7">
+    <row r="36" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A36" s="17">
         <v>26</v>
       </c>
@@ -2402,57 +2401,57 @@
         <v>76</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E36" s="21"/>
       <c r="G36" s="22"/>
     </row>
-    <row r="37" spans="1:7">
+    <row r="37" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A37" s="17">
         <v>27</v>
       </c>
       <c r="B37" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="C37" s="19" t="s">
+      <c r="D37" s="23" t="s">
         <v>79</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>80</v>
       </c>
       <c r="E37" s="21">
         <v>6</v>
       </c>
       <c r="G37" s="22"/>
     </row>
-    <row r="38" spans="1:7">
+    <row r="38" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A38" s="17">
         <v>28</v>
       </c>
       <c r="B38" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="19" t="s">
-        <v>82</v>
-      </c>
       <c r="D38" s="23" t="s">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="E38" s="21"/>
       <c r="G38" s="22"/>
     </row>
-    <row r="39" spans="1:7">
+    <row r="39" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
       <c r="A39" s="17">
         <v>29</v>
       </c>
       <c r="B39" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>84</v>
-      </c>
       <c r="D39" s="23" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E39" s="21">
         <v>6</v>
@@ -2489,7 +2488,7 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.88671875" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.21875" style="1" customWidth="1"/>
@@ -2497,7 +2496,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" ht="18" customHeight="1">
+    <row r="1" spans="1:24" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2508,34 +2507,34 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="3" spans="1:24">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>46</v>
@@ -2544,125 +2543,125 @@
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:24">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:24">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>69</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
-      <c r="A7" s="1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="8" spans="1:24">
-      <c r="A8" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:24">
-      <c r="A9" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="10" spans="1:24">
-      <c r="A10" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="11" spans="1:24">
-      <c r="A11" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="12" spans="1:24">
-      <c r="A12" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="13" spans="1:24">
-      <c r="A13" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="14" spans="1:24">
-      <c r="A14" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="15" spans="1:24">
-      <c r="A15" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="C15" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2680,7 +2679,7 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="21.33203125" customWidth="1"/>
     <col min="4" max="4" width="21.44140625" customWidth="1"/>
@@ -2690,17 +2689,17 @@
     <col min="8" max="8" width="40.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="24" t="s">
         <v>0</v>
       </c>
@@ -2723,15 +2722,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="7" customFormat="1">
+    <row r="6" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B6" s="14">
         <v>1</v>
       </c>
       <c r="C6" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6" s="14" t="s">
         <v>33</v>
@@ -2742,18 +2741,18 @@
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="14">
         <v>2</v>
       </c>
       <c r="C7" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="E7" s="14" t="s">
         <v>90</v>
-      </c>
-      <c r="D7" s="26" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>91</v>
       </c>
       <c r="F7" s="14">
         <v>100</v>
@@ -2761,18 +2760,18 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:8" s="7" customFormat="1">
+    <row r="8" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B8" s="14">
         <v>3</v>
       </c>
       <c r="C8" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="D8" s="26" t="s">
         <v>94</v>
       </c>
-      <c r="D8" s="26" t="s">
-        <v>95</v>
-      </c>
       <c r="E8" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F8" s="14">
         <v>14</v>
@@ -2780,18 +2779,18 @@
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
     </row>
-    <row r="9" spans="1:8" s="7" customFormat="1">
+    <row r="9" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B9" s="14">
         <v>4</v>
       </c>
       <c r="C9" s="26" t="s">
+        <v>97</v>
+      </c>
+      <c r="D9" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D9" s="26" t="s">
-        <v>99</v>
-      </c>
       <c r="E9" s="14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F9" s="14">
         <v>20</v>
@@ -2799,15 +2798,15 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B10" s="14">
         <v>5</v>
       </c>
       <c r="C10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="26" t="s">
         <v>100</v>
-      </c>
-      <c r="D10" s="26" t="s">
-        <v>101</v>
       </c>
       <c r="E10" s="14" t="s">
         <v>33</v>
@@ -2818,70 +2817,70 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:8" s="7" customFormat="1">
+    <row r="11" spans="1:8" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B11" s="14">
         <v>6</v>
       </c>
       <c r="C11" s="26" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F11" s="14"/>
       <c r="G11" s="14"/>
       <c r="H11" s="14"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B12" s="14">
         <v>7</v>
       </c>
       <c r="C12" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="D12" s="26" t="s">
-        <v>104</v>
-      </c>
       <c r="E12" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B13" s="14">
         <v>8</v>
       </c>
       <c r="C13" s="26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E13" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F13" s="14">
         <v>100</v>
       </c>
       <c r="G13" s="14"/>
       <c r="H13" s="27" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B14" s="14">
         <v>9</v>
       </c>
       <c r="C14" s="26" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" s="26" t="s">
         <v>248</v>
-      </c>
-      <c r="D14" s="26" t="s">
-        <v>249</v>
       </c>
       <c r="E14" s="14" t="s">
         <v>51</v>
@@ -2892,18 +2891,18 @@
       <c r="G14" s="14"/>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B15" s="14">
         <v>10</v>
       </c>
       <c r="C15" s="26" t="s">
+        <v>250</v>
+      </c>
+      <c r="D15" s="26" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="14" t="s">
         <v>251</v>
-      </c>
-      <c r="D15" s="26" t="s">
-        <v>250</v>
-      </c>
-      <c r="E15" s="14" t="s">
-        <v>252</v>
       </c>
       <c r="F15" s="14">
         <v>8</v>
@@ -2911,15 +2910,15 @@
       <c r="G15" s="14"/>
       <c r="H15" s="27"/>
     </row>
-    <row r="16" spans="1:8" ht="32.4">
+    <row r="16" spans="1:8" ht="32.4" x14ac:dyDescent="0.3">
       <c r="B16" s="14">
         <v>11</v>
       </c>
       <c r="C16" s="26" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E16" s="14" t="s">
         <v>51</v>
@@ -2929,7 +2928,7 @@
       </c>
       <c r="G16" s="14"/>
       <c r="H16" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2947,410 +2946,410 @@
       <selection activeCell="B50" sqref="A1:B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="13.109375" style="28" customWidth="1"/>
     <col min="2" max="2" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="28" t="s">
+        <v>218</v>
+      </c>
+      <c r="B1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="B8" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="28" t="s">
         <v>219</v>
       </c>
-      <c r="B1" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="B3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="28" t="s">
-        <v>124</v>
-      </c>
-      <c r="B4" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="B5" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="B7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="B9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="B10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="28" t="s">
+      <c r="B12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="B11" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="28" t="s">
-        <v>220</v>
-      </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="28" t="s">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
         <v>132</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="28" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="28" t="s">
         <v>133</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="28" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B16" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="28" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>135</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="28" t="s">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="28" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="28" t="s">
         <v>137</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="28" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B20" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="28" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="28" t="s">
         <v>139</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B21" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="28" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="28" t="s">
         <v>140</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="28" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="28" t="s">
         <v>141</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B23" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="28" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B24" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="28" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="28" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B26" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="28" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="28" t="s">
         <v>145</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B27" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="28" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B28" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="28" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="28" t="s">
         <v>147</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B29" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="28" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="28" t="s">
         <v>148</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B30" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="28" t="s">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="28" t="s">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B32" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="28" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="28" t="s">
         <v>151</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="28" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="28" t="s">
         <v>152</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B34" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="28" t="s">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="28" t="s">
         <v>153</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B35" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="28" t="s">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="28" t="s">
         <v>154</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B36" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="28" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="28" t="s">
         <v>155</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B37" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="28" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="28" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B39" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="28" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="28" t="s">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A41" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="28" t="s">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A42" s="28" t="s">
         <v>160</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B42" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="28" t="s">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A43" s="28" t="s">
         <v>161</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43" s="28" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A44" s="28" t="s">
         <v>162</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44" s="28" t="s">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A45" s="28" t="s">
         <v>163</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B45" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45" s="28" t="s">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A46" s="28" t="s">
         <v>164</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46" s="28" t="s">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A47" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B47" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A48" s="28" t="s">
+        <v>166</v>
+      </c>
+      <c r="B48" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47" s="28" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
-      <c r="A48" s="28" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="28" t="s">
         <v>167</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49" s="28" t="s">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A50" s="28" t="s">
         <v>168</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B50" t="s">
         <v>217</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
-      <c r="A50" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="B50" t="s">
-        <v>218</v>
       </c>
     </row>
   </sheetData>
